--- a/data-raw/REACH_2024_MSNA-kobo-tool_draft_v11.xlsx
+++ b/data-raw/REACH_2024_MSNA-kobo-tool_draft_v11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5280B6-E122-4EFE-830D-EC3A86D133EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E213EAE-29C8-4CC4-A17B-710AD2DF0805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D4BD6A84-72CE-494A-A45D-2F376291FCC5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">choices!$A$1:$H$416</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$B$1:$X$307</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$B$1:$X$322</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="2117">
   <si>
     <t>Level</t>
   </si>
@@ -6268,9 +6268,6 @@
     <t>6. Toutes les autres dépenses peu fréquentes (préciser)</t>
   </si>
   <si>
-    <t>l_cm_income_source_frequent</t>
-  </si>
-  <si>
     <t>7. Mon ménage n'a pas dépensé d'argent au cours des 6 derniers mois</t>
   </si>
   <si>
@@ -6395,6 +6392,153 @@
   </si>
   <si>
     <t>selected(${cm_expenditure_frequent}, 'food')</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>etc_access_to_phone</t>
+  </si>
+  <si>
+    <t>What type(s) of phone do members of your household own?</t>
+  </si>
+  <si>
+    <t>Quel(s) type(s) de téléphone(s) possèdent les membres de votre ménage ?</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>% of households by type of phone they own</t>
+  </si>
+  <si>
+    <t>etc_coverage_network_type</t>
+  </si>
+  <si>
+    <t>Does at least one member of your household have network coverage to use the mobile phone most days?</t>
+  </si>
+  <si>
+    <t>Est-ce qu'au moins un membre de ménage a accès à de la couverture réseau pour utiliser le téléphone portable la plupart du temps?</t>
+  </si>
+  <si>
+    <t>not(selected(${etc_access_to_phone}, 'none') or selected(${etc_access_to_phone}, 'pnta') or selected(${etc_access_to_phone}, 'dnk'))</t>
+  </si>
+  <si>
+    <t>For example in your home, work, school, or other place where you spend a lot of time.</t>
+  </si>
+  <si>
+    <t>Par exemple dans votre maison, au travail, à l'école, ou dans d'autres endroits où vous passez beaucoup de temps.</t>
+  </si>
+  <si>
+    <t>select_multiple l_etc_access_to_phone</t>
+  </si>
+  <si>
+    <t>select_one l_etc_coverage_network_type</t>
+  </si>
+  <si>
+    <t>basic_phone</t>
+  </si>
+  <si>
+    <t>Basic phone (Calls, SMS, mobile money, no Internet access)</t>
+  </si>
+  <si>
+    <t>Téléphone basique (appels, sms, mobile money, pas d'accès internet)</t>
+  </si>
+  <si>
+    <t>feature_phone</t>
+  </si>
+  <si>
+    <t>Feature phone (basic internet access, some preinstalled apps, no app store, physical keyboard)</t>
+  </si>
+  <si>
+    <t>Téléphone numérique (accès basique à l'internet, applications pré-installées, pas de possibilité de télécharger des applications, clavier digital)</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
+    <t>Smartphone (touchscreen, app store, advanced internet access)</t>
+  </si>
+  <si>
+    <t>Smartphone (écran tactile, possibilité de télécharger des applications, accès internet avancé</t>
+  </si>
+  <si>
+    <t>l_etc_access_to_phone</t>
+  </si>
+  <si>
+    <t>l_cm_expenditure_frequent</t>
+  </si>
+  <si>
+    <t>no_coverage</t>
+  </si>
+  <si>
+    <t>No coverage at all</t>
+  </si>
+  <si>
+    <t>Pas de couverture réseau du tout</t>
+  </si>
+  <si>
+    <t>only_sms</t>
+  </si>
+  <si>
+    <t>Only sms</t>
+  </si>
+  <si>
+    <t>Couverture pour SMS uniquement</t>
+  </si>
+  <si>
+    <t>only_voice</t>
+  </si>
+  <si>
+    <t>Only voice</t>
+  </si>
+  <si>
+    <t>Couverture pour appels uniquement</t>
+  </si>
+  <si>
+    <t>voice_sms</t>
+  </si>
+  <si>
+    <t>Voice and SMS coverage</t>
+  </si>
+  <si>
+    <t>Couverture pour appels et SMS</t>
+  </si>
+  <si>
+    <t>only_internet</t>
+  </si>
+  <si>
+    <t>Only internet</t>
+  </si>
+  <si>
+    <t>Couverture pour internet uniquement</t>
+  </si>
+  <si>
+    <t>voice_sms_internet</t>
+  </si>
+  <si>
+    <t>Voice, SMS and Internet (apps, websites, services such as WhatsApp, Facebook, and other similar) coverage</t>
+  </si>
+  <si>
+    <t>Couverture pour appels, sms et internet (applications, sites internets, whatsapp, facebook et autres services similaires)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préfère ne pas répondre </t>
+  </si>
+  <si>
+    <t>l_etc_coverage_network_type</t>
+  </si>
+  <si>
+    <t>% households by network coverage category</t>
+  </si>
+  <si>
+    <t>etc</t>
   </si>
 </sst>
 </file>
@@ -6973,12 +7117,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F2087-EBA3-4A4D-855A-29B5D74B1D94}">
-  <dimension ref="A1:Y533"/>
+  <dimension ref="A1:Y548"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A247" sqref="A247:XFD247"/>
+      <selection pane="bottomLeft" activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -16990,10 +17134,10 @@
       <c r="R219" s="11"/>
       <c r="S219" s="11"/>
       <c r="T219" s="11" t="s">
+        <v>2065</v>
+      </c>
+      <c r="U219" s="11" t="s">
         <v>2066</v>
-      </c>
-      <c r="U219" s="11" t="s">
-        <v>2067</v>
       </c>
       <c r="V219" s="11"/>
       <c r="W219" s="11"/>
@@ -17099,7 +17243,7 @@
         <v>819</v>
       </c>
       <c r="U221" s="11" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="V221" s="11"/>
       <c r="W221" s="11"/>
@@ -17154,7 +17298,7 @@
         <v>819</v>
       </c>
       <c r="U222" s="11" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="V222" s="11"/>
       <c r="W222" s="11"/>
@@ -17209,7 +17353,7 @@
         <v>819</v>
       </c>
       <c r="U223" s="11" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="V223" s="11"/>
       <c r="W223" s="11"/>
@@ -17264,7 +17408,7 @@
         <v>819</v>
       </c>
       <c r="U224" s="11" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="V224" s="11"/>
       <c r="W224" s="11"/>
@@ -17319,7 +17463,7 @@
         <v>819</v>
       </c>
       <c r="U225" s="11" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="V225" s="11"/>
       <c r="W225" s="11"/>
@@ -17374,7 +17518,7 @@
         <v>819</v>
       </c>
       <c r="U226" s="11" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="V226" s="11"/>
       <c r="W226" s="11"/>
@@ -17429,7 +17573,7 @@
         <v>819</v>
       </c>
       <c r="U227" s="11" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="V227" s="11"/>
       <c r="W227" s="11"/>
@@ -17484,7 +17628,7 @@
         <v>819</v>
       </c>
       <c r="U228" s="11" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="V228" s="11"/>
       <c r="W228" s="11"/>
@@ -17539,7 +17683,7 @@
         <v>819</v>
       </c>
       <c r="U229" s="11" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="V229" s="11"/>
       <c r="W229" s="11"/>
@@ -17594,7 +17738,7 @@
         <v>819</v>
       </c>
       <c r="U230" s="11" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="V230" s="11"/>
       <c r="W230" s="11"/>
@@ -17649,7 +17793,7 @@
         <v>819</v>
       </c>
       <c r="U231" s="11" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="V231" s="11"/>
       <c r="W231" s="11"/>
@@ -18474,22 +18618,22 @@
         <v>1966</v>
       </c>
       <c r="F247" s="11" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="G247" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="H247" s="11" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I247" s="11" t="s">
-        <v>1989</v>
+        <v>1968</v>
       </c>
       <c r="J247" s="11" t="s">
-        <v>1990</v>
+        <v>1969</v>
       </c>
       <c r="K247" s="11" t="s">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="L247" s="11"/>
       <c r="M247" s="11"/>
@@ -18498,11 +18642,17 @@
         <v>1</v>
       </c>
       <c r="P247" s="11"/>
-      <c r="Q247" s="11"/>
+      <c r="Q247" s="11" t="s">
+        <v>807</v>
+      </c>
       <c r="R247" s="11"/>
       <c r="S247" s="11"/>
-      <c r="T247" s="11"/>
-      <c r="U247" s="11"/>
+      <c r="T247" s="11" t="s">
+        <v>2065</v>
+      </c>
+      <c r="U247" s="11" t="s">
+        <v>2066</v>
+      </c>
       <c r="V247" s="11"/>
       <c r="W247" s="11"/>
       <c r="X247" s="11"/>
@@ -18521,33 +18671,28 @@
         <v>1966</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="G248" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="H248" s="11" t="s">
         <v>95</v>
       </c>
       <c r="I248" s="11" t="s">
-        <v>1991</v>
+        <v>1970</v>
       </c>
       <c r="J248" s="11" t="s">
-        <v>1992</v>
+        <v>1971</v>
       </c>
       <c r="K248" s="11" t="s">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="L248" s="11"/>
       <c r="M248" s="11"/>
       <c r="N248" s="11"/>
-      <c r="O248" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P248" s="11"/>
-      <c r="Q248" s="11" t="s">
-        <v>807</v>
-      </c>
+      <c r="O248" s="11"/>
+      <c r="Q248" s="11"/>
       <c r="R248" s="11"/>
       <c r="S248" s="11"/>
       <c r="T248" s="11"/>
@@ -18570,22 +18715,22 @@
         <v>1966</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="G249" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H249" s="11" t="s">
         <v>58</v>
       </c>
       <c r="I249" s="11" t="s">
-        <v>1993</v>
+        <v>2064</v>
       </c>
       <c r="J249" s="11" t="s">
-        <v>1994</v>
+        <v>1972</v>
       </c>
       <c r="K249" s="11" t="s">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="L249" s="11"/>
       <c r="M249" s="11"/>
@@ -18594,7 +18739,7 @@
         <v>1</v>
       </c>
       <c r="P249" s="11" t="s">
-        <v>2057</v>
+        <v>2067</v>
       </c>
       <c r="Q249" s="11" t="s">
         <v>818</v>
@@ -18602,10 +18747,10 @@
       <c r="R249" s="11"/>
       <c r="S249" s="11"/>
       <c r="T249" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U249" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U249" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V249" s="11"/>
       <c r="W249" s="11"/>
@@ -18625,22 +18770,22 @@
         <v>1966</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="G250" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="H250" s="11" t="s">
         <v>58</v>
       </c>
       <c r="I250" s="11" t="s">
-        <v>1995</v>
+        <v>1973</v>
       </c>
       <c r="J250" s="11" t="s">
-        <v>1996</v>
+        <v>1974</v>
       </c>
       <c r="K250" s="11" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="L250" s="11"/>
       <c r="M250" s="11"/>
@@ -18649,7 +18794,7 @@
         <v>1</v>
       </c>
       <c r="P250" s="11" t="s">
-        <v>2056</v>
+        <v>2047</v>
       </c>
       <c r="Q250" s="11" t="s">
         <v>818</v>
@@ -18657,10 +18802,10 @@
       <c r="R250" s="11"/>
       <c r="S250" s="11"/>
       <c r="T250" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U250" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U250" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V250" s="11"/>
       <c r="W250" s="11"/>
@@ -18680,22 +18825,22 @@
         <v>1966</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="G251" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="H251" s="11" t="s">
         <v>58</v>
       </c>
       <c r="I251" s="11" t="s">
-        <v>1997</v>
+        <v>1975</v>
       </c>
       <c r="J251" s="11" t="s">
-        <v>1998</v>
+        <v>1976</v>
       </c>
       <c r="K251" s="11" t="s">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="L251" s="11"/>
       <c r="M251" s="11"/>
@@ -18704,7 +18849,7 @@
         <v>1</v>
       </c>
       <c r="P251" s="11" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="Q251" s="11" t="s">
         <v>818</v>
@@ -18712,10 +18857,10 @@
       <c r="R251" s="11"/>
       <c r="S251" s="11"/>
       <c r="T251" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U251" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U251" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V251" s="11"/>
       <c r="W251" s="11"/>
@@ -18735,22 +18880,22 @@
         <v>1966</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="G252" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="H252" s="11" t="s">
         <v>58</v>
       </c>
       <c r="I252" s="11" t="s">
-        <v>1999</v>
+        <v>1977</v>
       </c>
       <c r="J252" s="11" t="s">
-        <v>2000</v>
+        <v>1978</v>
       </c>
       <c r="K252" s="11" t="s">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="L252" s="11"/>
       <c r="M252" s="11"/>
@@ -18759,7 +18904,7 @@
         <v>1</v>
       </c>
       <c r="P252" s="11" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="Q252" s="11" t="s">
         <v>818</v>
@@ -18767,10 +18912,10 @@
       <c r="R252" s="11"/>
       <c r="S252" s="11"/>
       <c r="T252" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U252" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U252" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V252" s="11"/>
       <c r="W252" s="11"/>
@@ -18790,22 +18935,22 @@
         <v>1966</v>
       </c>
       <c r="F253" s="11" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="G253" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H253" s="11" t="s">
         <v>58</v>
       </c>
       <c r="I253" s="11" t="s">
-        <v>2001</v>
+        <v>2058</v>
       </c>
       <c r="J253" s="11" t="s">
-        <v>2002</v>
+        <v>1979</v>
       </c>
       <c r="K253" s="11" t="s">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="L253" s="11"/>
       <c r="M253" s="11"/>
@@ -18814,7 +18959,7 @@
         <v>1</v>
       </c>
       <c r="P253" s="11" t="s">
-        <v>2061</v>
+        <v>2052</v>
       </c>
       <c r="Q253" s="11" t="s">
         <v>818</v>
@@ -18822,10 +18967,10 @@
       <c r="R253" s="11"/>
       <c r="S253" s="11"/>
       <c r="T253" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U253" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U253" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V253" s="11"/>
       <c r="W253" s="11"/>
@@ -18845,22 +18990,22 @@
         <v>1966</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>1988</v>
+        <v>1967</v>
       </c>
       <c r="G254" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="H254" s="11" t="s">
         <v>58</v>
       </c>
       <c r="I254" s="11" t="s">
-        <v>2003</v>
+        <v>1980</v>
       </c>
       <c r="J254" s="11" t="s">
-        <v>2004</v>
+        <v>1981</v>
       </c>
       <c r="K254" s="11" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="L254" s="11"/>
       <c r="M254" s="11"/>
@@ -18869,7 +19014,7 @@
         <v>1</v>
       </c>
       <c r="P254" s="11" t="s">
-        <v>2062</v>
+        <v>2050</v>
       </c>
       <c r="Q254" s="11" t="s">
         <v>818</v>
@@ -18877,10 +19022,10 @@
       <c r="R254" s="11"/>
       <c r="S254" s="11"/>
       <c r="T254" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U254" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U254" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V254" s="11"/>
       <c r="W254" s="11"/>
@@ -18888,177 +19033,257 @@
     </row>
     <row r="255" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B255" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D255" s="14"/>
-      <c r="E255" s="14"/>
-      <c r="F255" s="14"/>
-      <c r="G255" s="13"/>
-      <c r="H255" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I255" s="14" t="s">
-        <v>792</v>
-      </c>
-      <c r="J255" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="K255" s="14" t="s">
-        <v>794</v>
-      </c>
-      <c r="L255" s="14"/>
-      <c r="M255" s="14"/>
-      <c r="N255" s="14"/>
-      <c r="O255" s="14"/>
-      <c r="P255" s="14"/>
-      <c r="Q255" s="14"/>
-      <c r="R255" s="14"/>
-      <c r="S255" s="14"/>
-      <c r="T255" s="14"/>
-      <c r="U255" s="14"/>
-      <c r="V255" s="14"/>
-      <c r="W255" s="14"/>
-      <c r="X255" s="14"/>
+      <c r="D255" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="E255" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G255" s="2">
+        <v>390</v>
+      </c>
+      <c r="H255" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I255" s="11" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J255" s="11" t="s">
+        <v>1983</v>
+      </c>
+      <c r="K255" s="11" t="s">
+        <v>2015</v>
+      </c>
+      <c r="L255" s="11"/>
+      <c r="M255" s="11"/>
+      <c r="N255" s="11"/>
+      <c r="O255" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P255" s="11" t="s">
+        <v>2051</v>
+      </c>
+      <c r="Q255" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="R255" s="11"/>
+      <c r="S255" s="11"/>
+      <c r="T255" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U255" s="11" t="s">
+        <v>2063</v>
+      </c>
+      <c r="V255" s="11"/>
+      <c r="W255" s="11"/>
+      <c r="X255" s="11"/>
     </row>
     <row r="256" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B256" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C256" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D256" s="14"/>
-      <c r="E256" s="14"/>
-      <c r="F256" s="14"/>
-      <c r="G256" s="13"/>
-      <c r="H256" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I256" s="14" t="s">
-        <v>891</v>
-      </c>
-      <c r="J256" s="14" t="s">
-        <v>892</v>
-      </c>
-      <c r="K256" s="14" t="s">
-        <v>893</v>
-      </c>
-      <c r="L256" s="14"/>
-      <c r="M256" s="14"/>
-      <c r="N256" s="14"/>
-      <c r="O256" s="14"/>
-      <c r="P256" s="14"/>
-      <c r="Q256" s="14"/>
-      <c r="R256" s="14"/>
-      <c r="S256" s="14"/>
-      <c r="T256" s="14"/>
-      <c r="U256" s="14"/>
-      <c r="V256" s="14"/>
-      <c r="W256" s="14"/>
-      <c r="X256" s="14"/>
+      <c r="D256" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="E256" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G256" s="2">
+        <v>391</v>
+      </c>
+      <c r="H256" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I256" s="11" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J256" s="11" t="s">
+        <v>1985</v>
+      </c>
+      <c r="K256" s="11" t="s">
+        <v>2016</v>
+      </c>
+      <c r="L256" s="11"/>
+      <c r="M256" s="11"/>
+      <c r="N256" s="11"/>
+      <c r="O256" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P256" s="11" t="s">
+        <v>2049</v>
+      </c>
+      <c r="Q256" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="R256" s="11"/>
+      <c r="S256" s="11"/>
+      <c r="T256" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U256" s="11" t="s">
+        <v>2063</v>
+      </c>
+      <c r="V256" s="11"/>
+      <c r="W256" s="11"/>
+      <c r="X256" s="11"/>
     </row>
     <row r="257" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B257" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C257" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D257" s="10"/>
-      <c r="E257" s="11"/>
-      <c r="F257" s="11"/>
-      <c r="G257" s="2"/>
+      <c r="D257" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F257" s="11" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G257" s="2">
+        <v>392</v>
+      </c>
       <c r="H257" s="11" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="I257" s="11" t="s">
-        <v>894</v>
-      </c>
-      <c r="J257" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="K257" s="15" t="s">
-        <v>896</v>
+        <v>1986</v>
+      </c>
+      <c r="J257" s="11" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K257" s="11" t="s">
+        <v>2017</v>
       </c>
       <c r="L257" s="11"/>
       <c r="M257" s="11"/>
       <c r="N257" s="11"/>
-      <c r="O257" s="11"/>
-      <c r="P257" s="11"/>
-      <c r="Q257" s="11"/>
+      <c r="O257" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P257" s="11" t="s">
+        <v>2048</v>
+      </c>
+      <c r="Q257" s="11" t="s">
+        <v>818</v>
+      </c>
       <c r="R257" s="11"/>
       <c r="S257" s="11"/>
-      <c r="T257" s="11"/>
-      <c r="U257" s="11"/>
+      <c r="T257" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U257" s="11" t="s">
+        <v>2063</v>
+      </c>
       <c r="V257" s="11"/>
       <c r="W257" s="11"/>
       <c r="X257" s="11"/>
     </row>
     <row r="258" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B258" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D258" s="20"/>
-      <c r="E258" s="20"/>
-      <c r="F258" s="20"/>
-      <c r="G258" s="19"/>
-      <c r="H258" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I258" s="20" t="s">
-        <v>897</v>
-      </c>
-      <c r="J258" s="20"/>
-      <c r="K258" s="20"/>
-      <c r="L258" s="20"/>
-      <c r="M258" s="20"/>
-      <c r="N258" s="20"/>
-      <c r="O258" s="20"/>
-      <c r="P258" s="20"/>
-      <c r="Q258" s="20"/>
-      <c r="R258" s="20"/>
-      <c r="S258" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="T258" s="20"/>
-      <c r="U258" s="20"/>
-      <c r="V258" s="20"/>
-      <c r="W258" s="20"/>
-      <c r="X258" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="D258" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="E258" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>1988</v>
+      </c>
+      <c r="G258" s="2">
+        <v>393</v>
+      </c>
+      <c r="H258" s="11" t="s">
+        <v>2006</v>
+      </c>
+      <c r="I258" s="11" t="s">
+        <v>1989</v>
+      </c>
+      <c r="J258" s="11" t="s">
+        <v>1990</v>
+      </c>
+      <c r="K258" s="11" t="s">
+        <v>2018</v>
+      </c>
+      <c r="L258" s="11"/>
+      <c r="M258" s="11"/>
+      <c r="N258" s="11"/>
+      <c r="O258" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P258" s="11"/>
+      <c r="Q258" s="11"/>
+      <c r="R258" s="11"/>
+      <c r="S258" s="11"/>
+      <c r="T258" s="11"/>
+      <c r="U258" s="11"/>
+      <c r="V258" s="11"/>
+      <c r="W258" s="11"/>
+      <c r="X258" s="11"/>
     </row>
     <row r="259" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B259" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D259" s="10"/>
-      <c r="E259" s="11"/>
-      <c r="F259" s="11"/>
-      <c r="G259" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="E259" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F259" s="11" t="s">
+        <v>1988</v>
+      </c>
+      <c r="G259" s="2">
+        <v>394</v>
+      </c>
       <c r="H259" s="11" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="I259" s="11" t="s">
-        <v>898</v>
-      </c>
-      <c r="J259" s="11"/>
-      <c r="K259" s="11"/>
+        <v>1991</v>
+      </c>
+      <c r="J259" s="11" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K259" s="11" t="s">
+        <v>2019</v>
+      </c>
       <c r="L259" s="11"/>
       <c r="M259" s="11"/>
-      <c r="N259" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="O259" s="11"/>
+      <c r="N259" s="11"/>
+      <c r="O259" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="P259" s="11"/>
-      <c r="Q259" s="11"/>
+      <c r="Q259" s="11" t="s">
+        <v>807</v>
+      </c>
       <c r="R259" s="11"/>
       <c r="S259" s="11"/>
       <c r="T259" s="11"/>
@@ -19069,139 +19294,199 @@
     </row>
     <row r="260" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B260" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D260" s="10"/>
-      <c r="E260" s="11"/>
-      <c r="F260" s="11"/>
-      <c r="G260" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>1988</v>
+      </c>
+      <c r="G260" s="2">
+        <v>395</v>
+      </c>
       <c r="H260" s="11" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I260" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="J260" s="11"/>
-      <c r="K260" s="11"/>
+        <v>1993</v>
+      </c>
+      <c r="J260" s="11" t="s">
+        <v>1994</v>
+      </c>
+      <c r="K260" s="11" t="s">
+        <v>2020</v>
+      </c>
       <c r="L260" s="11"/>
       <c r="M260" s="11"/>
-      <c r="N260" s="11" t="s">
-        <v>900</v>
-      </c>
-      <c r="O260" s="11"/>
-      <c r="P260" s="11"/>
-      <c r="Q260" s="11"/>
+      <c r="N260" s="11"/>
+      <c r="O260" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P260" s="11" t="s">
+        <v>2056</v>
+      </c>
+      <c r="Q260" s="11" t="s">
+        <v>818</v>
+      </c>
       <c r="R260" s="11"/>
       <c r="S260" s="11"/>
-      <c r="T260" s="11"/>
-      <c r="U260" s="11"/>
+      <c r="T260" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U260" s="11" t="s">
+        <v>2063</v>
+      </c>
       <c r="V260" s="11"/>
       <c r="W260" s="11"/>
       <c r="X260" s="11"/>
     </row>
     <row r="261" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B261" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D261" s="10"/>
-      <c r="E261" s="11"/>
-      <c r="F261" s="11"/>
-      <c r="G261" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="E261" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>1988</v>
+      </c>
+      <c r="G261" s="2">
+        <v>396</v>
+      </c>
       <c r="H261" s="11" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I261" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="J261" s="11"/>
-      <c r="K261" s="11"/>
+        <v>1995</v>
+      </c>
+      <c r="J261" s="11" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K261" s="11" t="s">
+        <v>2021</v>
+      </c>
       <c r="L261" s="11"/>
       <c r="M261" s="11"/>
-      <c r="N261" s="11" t="s">
-        <v>902</v>
-      </c>
-      <c r="O261" s="11"/>
-      <c r="P261" s="11"/>
-      <c r="Q261" s="11"/>
+      <c r="N261" s="11"/>
+      <c r="O261" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P261" s="11" t="s">
+        <v>2055</v>
+      </c>
+      <c r="Q261" s="11" t="s">
+        <v>818</v>
+      </c>
       <c r="R261" s="11"/>
       <c r="S261" s="11"/>
-      <c r="T261" s="11"/>
-      <c r="U261" s="11"/>
+      <c r="T261" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U261" s="11" t="s">
+        <v>2063</v>
+      </c>
       <c r="V261" s="11"/>
       <c r="W261" s="11"/>
       <c r="X261" s="11"/>
     </row>
     <row r="262" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B262" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D262" s="10"/>
-      <c r="E262" s="11"/>
-      <c r="F262" s="11"/>
-      <c r="G262" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="E262" s="10" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>1988</v>
+      </c>
+      <c r="G262" s="2">
+        <v>397</v>
+      </c>
       <c r="H262" s="11" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>903</v>
-      </c>
-      <c r="J262" s="11"/>
-      <c r="K262" s="11"/>
+        <v>1997</v>
+      </c>
+      <c r="J262" s="11" t="s">
+        <v>1998</v>
+      </c>
+      <c r="K262" s="11" t="s">
+        <v>2022</v>
+      </c>
       <c r="L262" s="11"/>
       <c r="M262" s="11"/>
-      <c r="N262" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="O262" s="11"/>
-      <c r="P262" s="11"/>
-      <c r="Q262" s="11"/>
+      <c r="N262" s="11"/>
+      <c r="O262" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P262" s="11" t="s">
+        <v>2057</v>
+      </c>
+      <c r="Q262" s="11" t="s">
+        <v>818</v>
+      </c>
       <c r="R262" s="11"/>
       <c r="S262" s="11"/>
-      <c r="T262" s="11"/>
-      <c r="U262" s="11"/>
+      <c r="T262" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U262" s="11" t="s">
+        <v>2063</v>
+      </c>
       <c r="V262" s="11"/>
       <c r="W262" s="11"/>
       <c r="X262" s="11"/>
     </row>
     <row r="263" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B263" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>892</v>
-      </c>
-      <c r="E263" s="11" t="s">
-        <v>905</v>
+        <v>798</v>
+      </c>
+      <c r="E263" s="10" t="s">
+        <v>1966</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>906</v>
+        <v>1988</v>
       </c>
       <c r="G263" s="2">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="H263" s="11" t="s">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="I263" s="11" t="s">
-        <v>907</v>
+        <v>1999</v>
       </c>
       <c r="J263" s="11" t="s">
-        <v>908</v>
+        <v>2000</v>
       </c>
       <c r="K263" s="11" t="s">
-        <v>909</v>
+        <v>2023</v>
       </c>
       <c r="L263" s="11"/>
       <c r="M263" s="11"/>
@@ -19209,99 +19494,109 @@
       <c r="O263" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="P263" s="11"/>
-      <c r="Q263" s="11"/>
+      <c r="P263" s="11" t="s">
+        <v>2059</v>
+      </c>
+      <c r="Q263" s="11" t="s">
+        <v>818</v>
+      </c>
       <c r="R263" s="11"/>
       <c r="S263" s="11"/>
-      <c r="T263" s="11"/>
-      <c r="U263" s="11"/>
+      <c r="T263" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U263" s="11" t="s">
+        <v>2063</v>
+      </c>
       <c r="V263" s="11"/>
       <c r="W263" s="11"/>
       <c r="X263" s="11"/>
     </row>
     <row r="264" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B264" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>892</v>
-      </c>
-      <c r="E264" s="11" t="s">
-        <v>905</v>
+        <v>798</v>
+      </c>
+      <c r="E264" s="10" t="s">
+        <v>1966</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>910</v>
+        <v>1988</v>
       </c>
       <c r="G264" s="2">
-        <v>275</v>
+        <v>399</v>
       </c>
       <c r="H264" s="11" t="s">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="I264" s="11" t="s">
-        <v>911</v>
+        <v>2001</v>
       </c>
       <c r="J264" s="11" t="s">
-        <v>912</v>
+        <v>2002</v>
       </c>
       <c r="K264" s="11" t="s">
-        <v>913</v>
-      </c>
-      <c r="L264" s="11" t="s">
-        <v>914</v>
-      </c>
-      <c r="M264" s="11" t="s">
-        <v>915</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="L264" s="11"/>
+      <c r="M264" s="11"/>
       <c r="N264" s="11"/>
       <c r="O264" s="11" t="b">
         <v>1</v>
       </c>
       <c r="P264" s="11" t="s">
-        <v>916</v>
-      </c>
-      <c r="Q264" s="11"/>
+        <v>2060</v>
+      </c>
+      <c r="Q264" s="11" t="s">
+        <v>818</v>
+      </c>
       <c r="R264" s="11"/>
       <c r="S264" s="11"/>
-      <c r="T264" s="11"/>
-      <c r="U264" s="11"/>
+      <c r="T264" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U264" s="11" t="s">
+        <v>2063</v>
+      </c>
       <c r="V264" s="11"/>
       <c r="W264" s="11"/>
       <c r="X264" s="11"/>
     </row>
     <row r="265" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B265" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>892</v>
-      </c>
-      <c r="E265" s="11" t="s">
-        <v>905</v>
+        <v>798</v>
+      </c>
+      <c r="E265" s="10" t="s">
+        <v>1966</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>917</v>
+        <v>1988</v>
       </c>
       <c r="G265" s="2">
-        <v>274</v>
+        <v>400</v>
       </c>
       <c r="H265" s="11" t="s">
-        <v>918</v>
+        <v>58</v>
       </c>
       <c r="I265" s="11" t="s">
-        <v>919</v>
+        <v>2003</v>
       </c>
       <c r="J265" s="11" t="s">
-        <v>920</v>
+        <v>2004</v>
       </c>
       <c r="K265" s="11" t="s">
-        <v>921</v>
+        <v>2025</v>
       </c>
       <c r="L265" s="11"/>
       <c r="M265" s="11"/>
@@ -19310,15 +19605,19 @@
         <v>1</v>
       </c>
       <c r="P265" s="11" t="s">
-        <v>916</v>
+        <v>2061</v>
       </c>
       <c r="Q265" s="11" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
       <c r="R265" s="11"/>
       <c r="S265" s="11"/>
-      <c r="T265" s="11"/>
-      <c r="U265" s="11"/>
+      <c r="T265" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U265" s="11" t="s">
+        <v>2063</v>
+      </c>
       <c r="V265" s="11"/>
       <c r="W265" s="11"/>
       <c r="X265" s="11"/>
@@ -19328,82 +19627,74 @@
         <v>1</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D266" s="10" t="s">
-        <v>892</v>
-      </c>
-      <c r="E266" s="11" t="s">
-        <v>905</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="G266" s="2">
-        <v>274</v>
-      </c>
-      <c r="H266" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="I266" s="11" t="s">
-        <v>922</v>
-      </c>
-      <c r="J266" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="K266" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="L266" s="11"/>
-      <c r="M266" s="11"/>
-      <c r="N266" s="11"/>
-      <c r="O266" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P266" s="11" t="s">
-        <v>923</v>
-      </c>
-      <c r="Q266" s="11"/>
-      <c r="R266" s="11"/>
-      <c r="S266" s="11"/>
-      <c r="T266" s="11"/>
-      <c r="U266" s="11"/>
-      <c r="V266" s="11"/>
-      <c r="W266" s="11"/>
-      <c r="X266" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="D266" s="14"/>
+      <c r="E266" s="14"/>
+      <c r="F266" s="14"/>
+      <c r="G266" s="13"/>
+      <c r="H266" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I266" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="J266" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="K266" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="L266" s="14"/>
+      <c r="M266" s="14"/>
+      <c r="N266" s="14"/>
+      <c r="O266" s="14"/>
+      <c r="P266" s="14"/>
+      <c r="Q266" s="14"/>
+      <c r="R266" s="14"/>
+      <c r="S266" s="14"/>
+      <c r="T266" s="14"/>
+      <c r="U266" s="14"/>
+      <c r="V266" s="14"/>
+      <c r="W266" s="14"/>
+      <c r="X266" s="14"/>
     </row>
     <row r="267" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B267" s="9">
         <v>1</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D267" s="20"/>
-      <c r="E267" s="20"/>
-      <c r="F267" s="20"/>
-      <c r="G267" s="19"/>
-      <c r="H267" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="I267" s="20" t="s">
-        <v>897</v>
-      </c>
-      <c r="J267" s="20"/>
-      <c r="K267" s="20"/>
-      <c r="L267" s="20"/>
-      <c r="M267" s="20"/>
-      <c r="N267" s="20"/>
-      <c r="O267" s="20"/>
-      <c r="P267" s="20"/>
-      <c r="Q267" s="20"/>
-      <c r="R267" s="20"/>
-      <c r="S267" s="20"/>
-      <c r="T267" s="20"/>
-      <c r="U267" s="20"/>
-      <c r="V267" s="20"/>
-      <c r="W267" s="20"/>
-      <c r="X267" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="D267" s="14"/>
+      <c r="E267" s="14"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="13"/>
+      <c r="H267" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I267" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="J267" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="K267" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="L267" s="14"/>
+      <c r="M267" s="14"/>
+      <c r="N267" s="14"/>
+      <c r="O267" s="14"/>
+      <c r="P267" s="14"/>
+      <c r="Q267" s="14"/>
+      <c r="R267" s="14"/>
+      <c r="S267" s="14"/>
+      <c r="T267" s="14"/>
+      <c r="U267" s="14"/>
+      <c r="V267" s="14"/>
+      <c r="W267" s="14"/>
+      <c r="X267" s="14"/>
     </row>
     <row r="268" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B268" s="9">
@@ -19412,40 +19703,28 @@
       <c r="C268" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D268" s="10" t="s">
-        <v>892</v>
-      </c>
-      <c r="E268" s="11" t="s">
-        <v>924</v>
-      </c>
-      <c r="F268" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="G268" s="2">
-        <v>279</v>
-      </c>
+      <c r="D268" s="10"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="2"/>
       <c r="H268" s="11" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="I268" s="11" t="s">
-        <v>926</v>
-      </c>
-      <c r="J268" s="11" t="s">
-        <v>927</v>
-      </c>
-      <c r="K268" s="11" t="s">
-        <v>928</v>
+        <v>894</v>
+      </c>
+      <c r="J268" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="K268" s="15" t="s">
+        <v>896</v>
       </c>
       <c r="L268" s="11"/>
       <c r="M268" s="11"/>
       <c r="N268" s="11"/>
-      <c r="O268" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="O268" s="11"/>
       <c r="P268" s="11"/>
-      <c r="Q268" s="11" t="s">
-        <v>929</v>
-      </c>
+      <c r="Q268" s="11"/>
       <c r="R268" s="11"/>
       <c r="S268" s="11"/>
       <c r="T268" s="11"/>
@@ -19459,37 +19738,35 @@
         <v>1</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D269" s="14"/>
-      <c r="E269" s="14"/>
-      <c r="F269" s="14"/>
-      <c r="G269" s="13"/>
-      <c r="H269" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I269" s="14" t="s">
-        <v>792</v>
-      </c>
-      <c r="J269" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="K269" s="14" t="s">
-        <v>794</v>
-      </c>
-      <c r="L269" s="14"/>
-      <c r="M269" s="14"/>
-      <c r="N269" s="14"/>
-      <c r="O269" s="14"/>
-      <c r="P269" s="14"/>
-      <c r="Q269" s="14"/>
-      <c r="R269" s="14"/>
-      <c r="S269" s="14"/>
-      <c r="T269" s="14"/>
-      <c r="U269" s="14"/>
-      <c r="V269" s="14"/>
-      <c r="W269" s="14"/>
-      <c r="X269" s="14"/>
+        <v>158</v>
+      </c>
+      <c r="D269" s="20"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="19"/>
+      <c r="H269" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I269" s="20" t="s">
+        <v>897</v>
+      </c>
+      <c r="J269" s="20"/>
+      <c r="K269" s="20"/>
+      <c r="L269" s="20"/>
+      <c r="M269" s="20"/>
+      <c r="N269" s="20"/>
+      <c r="O269" s="20"/>
+      <c r="P269" s="20"/>
+      <c r="Q269" s="20"/>
+      <c r="R269" s="20"/>
+      <c r="S269" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="T269" s="20"/>
+      <c r="U269" s="20"/>
+      <c r="V269" s="20"/>
+      <c r="W269" s="20"/>
+      <c r="X269" s="20"/>
     </row>
     <row r="270" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B270" s="9">
@@ -19498,37 +19775,33 @@
       <c r="C270" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D270" s="14"/>
-      <c r="E270" s="14"/>
-      <c r="F270" s="14"/>
-      <c r="G270" s="13"/>
-      <c r="H270" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I270" s="14" t="s">
-        <v>930</v>
-      </c>
-      <c r="J270" s="14" t="s">
-        <v>931</v>
-      </c>
-      <c r="K270" s="14" t="s">
-        <v>931</v>
-      </c>
-      <c r="L270" s="14"/>
-      <c r="M270" s="14"/>
-      <c r="N270" s="14"/>
-      <c r="O270" s="14"/>
-      <c r="P270" s="14" t="s">
-        <v>932</v>
-      </c>
-      <c r="Q270" s="14"/>
-      <c r="R270" s="14"/>
-      <c r="S270" s="14"/>
-      <c r="T270" s="14"/>
-      <c r="U270" s="14"/>
-      <c r="V270" s="14"/>
-      <c r="W270" s="14"/>
-      <c r="X270" s="14"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I270" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="J270" s="11"/>
+      <c r="K270" s="11"/>
+      <c r="L270" s="11"/>
+      <c r="M270" s="11"/>
+      <c r="N270" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="O270" s="11"/>
+      <c r="P270" s="11"/>
+      <c r="Q270" s="11"/>
+      <c r="R270" s="11"/>
+      <c r="S270" s="11"/>
+      <c r="T270" s="11"/>
+      <c r="U270" s="11"/>
+      <c r="V270" s="11"/>
+      <c r="W270" s="11"/>
+      <c r="X270" s="11"/>
     </row>
     <row r="271" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B271" s="9">
@@ -19542,20 +19815,18 @@
       <c r="F271" s="11"/>
       <c r="G271" s="2"/>
       <c r="H271" s="11" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="I271" s="11" t="s">
-        <v>933</v>
-      </c>
-      <c r="J271" s="15" t="s">
-        <v>934</v>
-      </c>
-      <c r="K271" s="15" t="s">
-        <v>935</v>
-      </c>
+        <v>899</v>
+      </c>
+      <c r="J271" s="11"/>
+      <c r="K271" s="11"/>
       <c r="L271" s="11"/>
       <c r="M271" s="11"/>
-      <c r="N271" s="11"/>
+      <c r="N271" s="11" t="s">
+        <v>900</v>
+      </c>
       <c r="O271" s="11"/>
       <c r="P271" s="11"/>
       <c r="Q271" s="11"/>
@@ -19574,35 +19845,35 @@
       <c r="C272" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D272" s="20"/>
-      <c r="E272" s="20"/>
-      <c r="F272" s="20"/>
-      <c r="G272" s="19"/>
-      <c r="H272" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I272" s="20" t="s">
-        <v>936</v>
-      </c>
-      <c r="J272" s="20"/>
-      <c r="K272" s="20"/>
-      <c r="L272" s="20"/>
-      <c r="M272" s="20"/>
-      <c r="N272" s="20"/>
-      <c r="O272" s="20"/>
-      <c r="P272" s="20"/>
-      <c r="Q272" s="20"/>
-      <c r="R272" s="20"/>
-      <c r="S272" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="T272" s="20"/>
-      <c r="U272" s="20"/>
-      <c r="V272" s="20"/>
-      <c r="W272" s="20"/>
-      <c r="X272" s="20"/>
-    </row>
-    <row r="273" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="D272" s="10"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="11"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I272" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="J272" s="11"/>
+      <c r="K272" s="11"/>
+      <c r="L272" s="11"/>
+      <c r="M272" s="11"/>
+      <c r="N272" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="O272" s="11"/>
+      <c r="P272" s="11"/>
+      <c r="Q272" s="11"/>
+      <c r="R272" s="11"/>
+      <c r="S272" s="11"/>
+      <c r="T272" s="11"/>
+      <c r="U272" s="11"/>
+      <c r="V272" s="11"/>
+      <c r="W272" s="11"/>
+      <c r="X272" s="11"/>
+    </row>
+    <row r="273" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B273" s="9">
         <v>1</v>
       </c>
@@ -19617,14 +19888,14 @@
         <v>34</v>
       </c>
       <c r="I273" s="11" t="s">
-        <v>937</v>
+        <v>903</v>
       </c>
       <c r="J273" s="11"/>
       <c r="K273" s="11"/>
       <c r="L273" s="11"/>
       <c r="M273" s="11"/>
       <c r="N273" s="11" t="s">
-        <v>170</v>
+        <v>904</v>
       </c>
       <c r="O273" s="11"/>
       <c r="P273" s="11"/>
@@ -19637,31 +19908,43 @@
       <c r="W273" s="11"/>
       <c r="X273" s="11"/>
     </row>
-    <row r="274" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B274" s="9">
         <v>1</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D274" s="10"/>
-      <c r="E274" s="11"/>
-      <c r="F274" s="11"/>
-      <c r="G274" s="2"/>
+      <c r="D274" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="F274" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="G274" s="2">
+        <v>273</v>
+      </c>
       <c r="H274" s="11" t="s">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="I274" s="11" t="s">
-        <v>938</v>
-      </c>
-      <c r="J274" s="11"/>
-      <c r="K274" s="11"/>
+        <v>907</v>
+      </c>
+      <c r="J274" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="K274" s="11" t="s">
+        <v>909</v>
+      </c>
       <c r="L274" s="11"/>
       <c r="M274" s="11"/>
-      <c r="N274" s="11" t="s">
-        <v>939</v>
-      </c>
-      <c r="O274" s="11"/>
+      <c r="N274" s="11"/>
+      <c r="O274" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="P274" s="11"/>
       <c r="Q274" s="11"/>
       <c r="R274" s="11"/>
@@ -19672,32 +19955,50 @@
       <c r="W274" s="11"/>
       <c r="X274" s="11"/>
     </row>
-    <row r="275" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B275" s="9">
         <v>1</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D275" s="10"/>
-      <c r="E275" s="11"/>
-      <c r="F275" s="11"/>
-      <c r="G275" s="2"/>
+      <c r="D275" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="E275" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="F275" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="G275" s="2">
+        <v>275</v>
+      </c>
       <c r="H275" s="11" t="s">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="I275" s="11" t="s">
-        <v>940</v>
-      </c>
-      <c r="J275" s="11"/>
-      <c r="K275" s="11"/>
-      <c r="L275" s="11"/>
-      <c r="M275" s="11"/>
-      <c r="N275" s="11" t="s">
-        <v>941</v>
-      </c>
-      <c r="O275" s="11"/>
-      <c r="P275" s="11"/>
+        <v>911</v>
+      </c>
+      <c r="J275" s="11" t="s">
+        <v>912</v>
+      </c>
+      <c r="K275" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="L275" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="M275" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="N275" s="11"/>
+      <c r="O275" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P275" s="11" t="s">
+        <v>916</v>
+      </c>
       <c r="Q275" s="11"/>
       <c r="R275" s="11"/>
       <c r="S275" s="11"/>
@@ -19707,33 +20008,49 @@
       <c r="W275" s="11"/>
       <c r="X275" s="11"/>
     </row>
-    <row r="276" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B276" s="9">
         <v>1</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D276" s="10"/>
-      <c r="E276" s="11"/>
-      <c r="F276" s="11"/>
-      <c r="G276" s="2"/>
+      <c r="D276" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="F276" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="G276" s="2">
+        <v>274</v>
+      </c>
       <c r="H276" s="11" t="s">
-        <v>34</v>
+        <v>918</v>
       </c>
       <c r="I276" s="11" t="s">
-        <v>942</v>
-      </c>
-      <c r="J276" s="11"/>
-      <c r="K276" s="11"/>
+        <v>919</v>
+      </c>
+      <c r="J276" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="K276" s="11" t="s">
+        <v>921</v>
+      </c>
       <c r="L276" s="11"/>
       <c r="M276" s="11"/>
-      <c r="N276" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="O276" s="11"/>
-      <c r="P276" s="11"/>
-      <c r="Q276" s="11"/>
+      <c r="N276" s="11"/>
+      <c r="O276" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P276" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q276" s="11" t="s">
+        <v>787</v>
+      </c>
       <c r="R276" s="11"/>
       <c r="S276" s="11"/>
       <c r="T276" s="11"/>
@@ -19742,32 +20059,46 @@
       <c r="W276" s="11"/>
       <c r="X276" s="11"/>
     </row>
-    <row r="277" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B277" s="9">
         <v>1</v>
       </c>
       <c r="C277" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D277" s="10"/>
-      <c r="E277" s="11"/>
-      <c r="F277" s="11"/>
-      <c r="G277" s="2"/>
+      <c r="D277" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="E277" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="F277" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="G277" s="2">
+        <v>274</v>
+      </c>
       <c r="H277" s="11" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="I277" s="11" t="s">
-        <v>944</v>
-      </c>
-      <c r="J277" s="11"/>
-      <c r="K277" s="11"/>
+        <v>922</v>
+      </c>
+      <c r="J277" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="K277" s="11" t="s">
+        <v>299</v>
+      </c>
       <c r="L277" s="11"/>
       <c r="M277" s="11"/>
-      <c r="N277" s="11" t="s">
-        <v>945</v>
-      </c>
-      <c r="O277" s="11"/>
-      <c r="P277" s="11"/>
+      <c r="N277" s="11"/>
+      <c r="O277" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P277" s="11" t="s">
+        <v>923</v>
+      </c>
       <c r="Q277" s="11"/>
       <c r="R277" s="11"/>
       <c r="S277" s="11"/>
@@ -19777,68 +20108,80 @@
       <c r="W277" s="11"/>
       <c r="X277" s="11"/>
     </row>
-    <row r="278" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B278" s="9">
         <v>1</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D278" s="10"/>
-      <c r="E278" s="11"/>
-      <c r="F278" s="11"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I278" s="11" t="s">
-        <v>946</v>
-      </c>
-      <c r="J278" s="11"/>
-      <c r="K278" s="11"/>
-      <c r="L278" s="11"/>
-      <c r="M278" s="11"/>
-      <c r="N278" s="11" t="s">
-        <v>947</v>
-      </c>
-      <c r="O278" s="11"/>
-      <c r="P278" s="11"/>
-      <c r="Q278" s="11"/>
-      <c r="R278" s="11"/>
-      <c r="S278" s="11"/>
-      <c r="T278" s="11"/>
-      <c r="U278" s="11"/>
-      <c r="V278" s="11"/>
-      <c r="W278" s="11"/>
-      <c r="X278" s="11"/>
-    </row>
-    <row r="279" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="D278" s="20"/>
+      <c r="E278" s="20"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="19"/>
+      <c r="H278" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="I278" s="20" t="s">
+        <v>897</v>
+      </c>
+      <c r="J278" s="20"/>
+      <c r="K278" s="20"/>
+      <c r="L278" s="20"/>
+      <c r="M278" s="20"/>
+      <c r="N278" s="20"/>
+      <c r="O278" s="20"/>
+      <c r="P278" s="20"/>
+      <c r="Q278" s="20"/>
+      <c r="R278" s="20"/>
+      <c r="S278" s="20"/>
+      <c r="T278" s="20"/>
+      <c r="U278" s="20"/>
+      <c r="V278" s="20"/>
+      <c r="W278" s="20"/>
+      <c r="X278" s="20"/>
+    </row>
+    <row r="279" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B279" s="9">
         <v>1</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D279" s="10"/>
-      <c r="E279" s="11"/>
-      <c r="F279" s="11"/>
-      <c r="G279" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="E279" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="F279" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="G279" s="2">
+        <v>279</v>
+      </c>
       <c r="H279" s="11" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I279" s="11" t="s">
-        <v>948</v>
-      </c>
-      <c r="J279" s="11"/>
-      <c r="K279" s="11"/>
+        <v>926</v>
+      </c>
+      <c r="J279" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="K279" s="11" t="s">
+        <v>928</v>
+      </c>
       <c r="L279" s="11"/>
       <c r="M279" s="11"/>
-      <c r="N279" s="11" t="s">
-        <v>949</v>
-      </c>
-      <c r="O279" s="11"/>
+      <c r="N279" s="11"/>
+      <c r="O279" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="P279" s="11"/>
-      <c r="Q279" s="11"/>
+      <c r="Q279" s="11" t="s">
+        <v>929</v>
+      </c>
       <c r="R279" s="11"/>
       <c r="S279" s="11"/>
       <c r="T279" s="11"/>
@@ -19847,133 +20190,111 @@
       <c r="W279" s="11"/>
       <c r="X279" s="11"/>
     </row>
-    <row r="280" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B280" s="9">
         <v>1</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D280" s="10"/>
-      <c r="E280" s="11"/>
-      <c r="F280" s="11"/>
-      <c r="G280" s="2"/>
-      <c r="H280" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I280" s="11" t="s">
-        <v>950</v>
-      </c>
-      <c r="J280" s="11"/>
-      <c r="K280" s="11"/>
-      <c r="L280" s="11"/>
-      <c r="M280" s="11"/>
-      <c r="N280" s="11" t="s">
-        <v>951</v>
-      </c>
-      <c r="O280" s="11"/>
-      <c r="P280" s="11"/>
-      <c r="Q280" s="11"/>
-      <c r="R280" s="11"/>
-      <c r="S280" s="11"/>
-      <c r="T280" s="11"/>
-      <c r="U280" s="11"/>
-      <c r="V280" s="11"/>
-      <c r="W280" s="11"/>
-      <c r="X280" s="11"/>
-    </row>
-    <row r="281" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="D280" s="14"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="13"/>
+      <c r="H280" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I280" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="J280" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="K280" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="L280" s="14"/>
+      <c r="M280" s="14"/>
+      <c r="N280" s="14"/>
+      <c r="O280" s="14"/>
+      <c r="P280" s="14"/>
+      <c r="Q280" s="14"/>
+      <c r="R280" s="14"/>
+      <c r="S280" s="14"/>
+      <c r="T280" s="14"/>
+      <c r="U280" s="14"/>
+      <c r="V280" s="14"/>
+      <c r="W280" s="14"/>
+      <c r="X280" s="14"/>
+    </row>
+    <row r="281" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B281" s="9">
         <v>1</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D281" s="10" t="s">
+      <c r="D281" s="14"/>
+      <c r="E281" s="14"/>
+      <c r="F281" s="14"/>
+      <c r="G281" s="13"/>
+      <c r="H281" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I281" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="J281" s="14" t="s">
         <v>931</v>
       </c>
-      <c r="E281" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="F281" s="11" t="s">
-        <v>953</v>
-      </c>
-      <c r="G281" s="2">
-        <v>191</v>
-      </c>
-      <c r="H281" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="I281" s="11" t="s">
-        <v>954</v>
-      </c>
-      <c r="J281" s="11" t="s">
-        <v>955</v>
-      </c>
-      <c r="K281" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="L281" s="11"/>
-      <c r="M281" s="11"/>
-      <c r="N281" s="11"/>
-      <c r="O281" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P281" s="11" t="s">
-        <v>957</v>
-      </c>
-      <c r="Q281" s="11"/>
-      <c r="R281" s="11"/>
-      <c r="S281" s="11"/>
-      <c r="T281" s="11"/>
-      <c r="U281" s="11"/>
-      <c r="V281" s="11"/>
-      <c r="W281" s="11"/>
-      <c r="X281" s="11"/>
-    </row>
-    <row r="282" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="K281" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="L281" s="14"/>
+      <c r="M281" s="14"/>
+      <c r="N281" s="14"/>
+      <c r="O281" s="14"/>
+      <c r="P281" s="14" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q281" s="14"/>
+      <c r="R281" s="14"/>
+      <c r="S281" s="14"/>
+      <c r="T281" s="14"/>
+      <c r="U281" s="14"/>
+      <c r="V281" s="14"/>
+      <c r="W281" s="14"/>
+      <c r="X281" s="14"/>
+    </row>
+    <row r="282" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B282" s="9">
         <v>1</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D282" s="10" t="s">
-        <v>931</v>
-      </c>
-      <c r="E282" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="F282" s="11" t="s">
-        <v>958</v>
-      </c>
-      <c r="G282" s="2">
-        <v>192</v>
-      </c>
+      <c r="D282" s="10"/>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11"/>
+      <c r="G282" s="2"/>
       <c r="H282" s="11" t="s">
-        <v>959</v>
+        <v>95</v>
       </c>
       <c r="I282" s="11" t="s">
-        <v>960</v>
-      </c>
-      <c r="J282" s="11" t="s">
-        <v>961</v>
-      </c>
-      <c r="K282" s="11" t="s">
-        <v>962</v>
+        <v>933</v>
+      </c>
+      <c r="J282" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="K282" s="15" t="s">
+        <v>935</v>
       </c>
       <c r="L282" s="11"/>
       <c r="M282" s="11"/>
       <c r="N282" s="11"/>
-      <c r="O282" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P282" s="11" t="s">
-        <v>963</v>
-      </c>
-      <c r="Q282" s="11" t="s">
-        <v>787</v>
-      </c>
+      <c r="O282" s="11"/>
+      <c r="P282" s="11"/>
+      <c r="Q282" s="11"/>
       <c r="R282" s="11"/>
       <c r="S282" s="11"/>
       <c r="T282" s="11"/>
@@ -19982,101 +20303,67 @@
       <c r="W282" s="11"/>
       <c r="X282" s="11"/>
     </row>
-    <row r="283" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="B283" s="9" t="s">
-        <v>964</v>
+    <row r="283" spans="2:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B283" s="9">
+        <v>1</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D283" s="10" t="s">
-        <v>931</v>
-      </c>
-      <c r="E283" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="F283" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="G283" s="2">
-        <v>193</v>
-      </c>
-      <c r="H283" s="11" t="s">
-        <v>966</v>
-      </c>
-      <c r="I283" s="11" t="s">
-        <v>967</v>
-      </c>
-      <c r="J283" s="11" t="s">
-        <v>968</v>
-      </c>
-      <c r="K283" s="11" t="s">
-        <v>969</v>
-      </c>
-      <c r="L283" s="11"/>
-      <c r="M283" s="11"/>
-      <c r="N283" s="11"/>
-      <c r="O283" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P283" s="11" t="s">
-        <v>963</v>
-      </c>
-      <c r="Q283" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="R283" s="11"/>
-      <c r="S283" s="11"/>
-      <c r="T283" s="11"/>
-      <c r="U283" s="11"/>
-      <c r="V283" s="11"/>
-      <c r="W283" s="11"/>
-      <c r="X283" s="11"/>
-    </row>
-    <row r="284" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="B284" s="9" t="s">
-        <v>964</v>
+      <c r="D283" s="20"/>
+      <c r="E283" s="20"/>
+      <c r="F283" s="20"/>
+      <c r="G283" s="19"/>
+      <c r="H283" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I283" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="J283" s="20"/>
+      <c r="K283" s="20"/>
+      <c r="L283" s="20"/>
+      <c r="M283" s="20"/>
+      <c r="N283" s="20"/>
+      <c r="O283" s="20"/>
+      <c r="P283" s="20"/>
+      <c r="Q283" s="20"/>
+      <c r="R283" s="20"/>
+      <c r="S283" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="T283" s="20"/>
+      <c r="U283" s="20"/>
+      <c r="V283" s="20"/>
+      <c r="W283" s="20"/>
+      <c r="X283" s="20"/>
+    </row>
+    <row r="284" spans="2:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B284" s="9">
+        <v>1</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D284" s="10" t="s">
-        <v>931</v>
-      </c>
-      <c r="E284" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="F284" s="11" t="s">
-        <v>970</v>
-      </c>
-      <c r="G284" s="2">
-        <v>194</v>
-      </c>
+      <c r="D284" s="10"/>
+      <c r="E284" s="11"/>
+      <c r="F284" s="11"/>
+      <c r="G284" s="2"/>
       <c r="H284" s="11" t="s">
-        <v>326</v>
+        <v>34</v>
       </c>
       <c r="I284" s="11" t="s">
-        <v>971</v>
-      </c>
-      <c r="J284" s="11" t="s">
-        <v>972</v>
-      </c>
-      <c r="K284" s="11" t="s">
-        <v>973</v>
-      </c>
-      <c r="L284" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="M284" s="11" t="s">
-        <v>975</v>
-      </c>
-      <c r="N284" s="11"/>
-      <c r="O284" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P284" s="11" t="s">
-        <v>976</v>
-      </c>
+        <v>937</v>
+      </c>
+      <c r="J284" s="11"/>
+      <c r="K284" s="11"/>
+      <c r="L284" s="11"/>
+      <c r="M284" s="11"/>
+      <c r="N284" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="O284" s="11"/>
+      <c r="P284" s="11"/>
       <c r="Q284" s="11"/>
       <c r="R284" s="11"/>
       <c r="S284" s="11"/>
@@ -20086,50 +20373,32 @@
       <c r="W284" s="11"/>
       <c r="X284" s="11"/>
     </row>
-    <row r="285" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="B285" s="9" t="s">
-        <v>964</v>
+    <row r="285" spans="2:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B285" s="9">
+        <v>1</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D285" s="10" t="s">
-        <v>931</v>
-      </c>
-      <c r="E285" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="F285" s="11" t="s">
-        <v>977</v>
-      </c>
-      <c r="G285" s="2">
-        <v>195</v>
-      </c>
+      <c r="D285" s="10"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="2"/>
       <c r="H285" s="11" t="s">
-        <v>326</v>
+        <v>34</v>
       </c>
       <c r="I285" s="11" t="s">
-        <v>978</v>
-      </c>
-      <c r="J285" s="11" t="s">
-        <v>979</v>
-      </c>
-      <c r="K285" s="11" t="s">
-        <v>980</v>
-      </c>
-      <c r="L285" s="11" t="s">
-        <v>981</v>
-      </c>
-      <c r="M285" s="11" t="s">
-        <v>982</v>
-      </c>
-      <c r="N285" s="11"/>
-      <c r="O285" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P285" s="11" t="s">
-        <v>983</v>
-      </c>
+        <v>938</v>
+      </c>
+      <c r="J285" s="11"/>
+      <c r="K285" s="11"/>
+      <c r="L285" s="11"/>
+      <c r="M285" s="11"/>
+      <c r="N285" s="11" t="s">
+        <v>939</v>
+      </c>
+      <c r="O285" s="11"/>
+      <c r="P285" s="11"/>
       <c r="Q285" s="11"/>
       <c r="R285" s="11"/>
       <c r="S285" s="11"/>
@@ -20139,152 +20408,135 @@
       <c r="W285" s="11"/>
       <c r="X285" s="11"/>
     </row>
-    <row r="286" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B286" s="9">
         <v>1</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D286" s="18"/>
-      <c r="E286" s="20"/>
-      <c r="F286" s="20"/>
-      <c r="G286" s="19"/>
-      <c r="H286" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="I286" s="20" t="s">
-        <v>936</v>
-      </c>
-      <c r="J286" s="20"/>
-      <c r="K286" s="20"/>
-      <c r="L286" s="20"/>
-      <c r="M286" s="20"/>
-      <c r="N286" s="20"/>
-      <c r="O286" s="20"/>
-      <c r="P286" s="20"/>
-      <c r="Q286" s="20"/>
-      <c r="R286" s="20"/>
-      <c r="S286" s="20"/>
-      <c r="T286" s="20"/>
-      <c r="U286" s="20"/>
-      <c r="V286" s="20"/>
-      <c r="W286" s="20"/>
-      <c r="X286" s="20"/>
-    </row>
-    <row r="287" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="D286" s="10"/>
+      <c r="E286" s="11"/>
+      <c r="F286" s="11"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I286" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="J286" s="11"/>
+      <c r="K286" s="11"/>
+      <c r="L286" s="11"/>
+      <c r="M286" s="11"/>
+      <c r="N286" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="O286" s="11"/>
+      <c r="P286" s="11"/>
+      <c r="Q286" s="11"/>
+      <c r="R286" s="11"/>
+      <c r="S286" s="11"/>
+      <c r="T286" s="11"/>
+      <c r="U286" s="11"/>
+      <c r="V286" s="11"/>
+      <c r="W286" s="11"/>
+      <c r="X286" s="11"/>
+    </row>
+    <row r="287" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B287" s="9">
         <v>1</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D287" s="14" t="s">
-        <v>984</v>
-      </c>
-      <c r="E287" s="14"/>
-      <c r="F287" s="14"/>
-      <c r="G287" s="13"/>
-      <c r="H287" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I287" s="14" t="s">
-        <v>930</v>
-      </c>
-      <c r="J287" s="14" t="s">
-        <v>931</v>
-      </c>
-      <c r="K287" s="14" t="s">
-        <v>931</v>
-      </c>
-      <c r="L287" s="14"/>
-      <c r="M287" s="14"/>
-      <c r="N287" s="14"/>
-      <c r="O287" s="14"/>
-      <c r="P287" s="14"/>
-      <c r="Q287" s="14"/>
-      <c r="R287" s="14"/>
-      <c r="S287" s="14"/>
-      <c r="T287" s="14"/>
-      <c r="U287" s="14"/>
-      <c r="V287" s="14"/>
-      <c r="W287" s="14"/>
-      <c r="X287" s="14"/>
-    </row>
-    <row r="288" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="A288" s="31"/>
-      <c r="B288" s="32">
-        <v>1</v>
-      </c>
-      <c r="C288" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D288" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="E288" s="33"/>
-      <c r="F288" s="33"/>
-      <c r="G288" s="34"/>
-      <c r="H288" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="I288" s="33" t="s">
-        <v>985</v>
-      </c>
-      <c r="J288" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="K288" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="L288" s="33"/>
-      <c r="M288" s="33"/>
-      <c r="N288" s="33"/>
-      <c r="O288" s="48"/>
-      <c r="P288" s="48"/>
-      <c r="Q288" s="33"/>
-      <c r="R288" s="33"/>
-      <c r="S288" s="33"/>
-      <c r="T288" s="33"/>
-      <c r="U288" s="33"/>
-      <c r="V288" s="33"/>
-      <c r="W288" s="33"/>
-      <c r="X288" s="33"/>
+      <c r="D287" s="10"/>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I287" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="J287" s="11"/>
+      <c r="K287" s="11"/>
+      <c r="L287" s="11"/>
+      <c r="M287" s="11"/>
+      <c r="N287" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="O287" s="11"/>
+      <c r="P287" s="11"/>
+      <c r="Q287" s="11"/>
+      <c r="R287" s="11"/>
+      <c r="S287" s="11"/>
+      <c r="T287" s="11"/>
+      <c r="U287" s="11"/>
+      <c r="V287" s="11"/>
+      <c r="W287" s="11"/>
+      <c r="X287" s="11"/>
+    </row>
+    <row r="288" spans="2:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B288" s="9">
+        <v>1</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D288" s="10"/>
+      <c r="E288" s="11"/>
+      <c r="F288" s="11"/>
+      <c r="G288" s="2"/>
+      <c r="H288" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I288" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="J288" s="11"/>
+      <c r="K288" s="11"/>
+      <c r="L288" s="11"/>
+      <c r="M288" s="11"/>
+      <c r="N288" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="O288" s="11"/>
+      <c r="P288" s="11"/>
+      <c r="Q288" s="11"/>
+      <c r="R288" s="11"/>
+      <c r="S288" s="11"/>
+      <c r="T288" s="11"/>
+      <c r="U288" s="11"/>
+      <c r="V288" s="11"/>
+      <c r="W288" s="11"/>
+      <c r="X288" s="11"/>
     </row>
     <row r="289" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B289" s="9">
         <v>1</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D289" s="10" t="s">
-        <v>984</v>
-      </c>
-      <c r="E289" s="11" t="s">
-        <v>986</v>
-      </c>
-      <c r="F289" s="11" t="s">
-        <v>987</v>
-      </c>
-      <c r="G289" s="2">
-        <v>476</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D289" s="10"/>
+      <c r="E289" s="11"/>
+      <c r="F289" s="11"/>
+      <c r="G289" s="2"/>
       <c r="H289" s="11" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="I289" s="11" t="s">
-        <v>988</v>
-      </c>
-      <c r="J289" s="11" t="s">
-        <v>989</v>
-      </c>
-      <c r="K289" s="11" t="s">
-        <v>990</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="J289" s="11"/>
+      <c r="K289" s="11"/>
       <c r="L289" s="11"/>
       <c r="M289" s="11"/>
-      <c r="N289" s="11"/>
+      <c r="N289" s="11" t="s">
+        <v>947</v>
+      </c>
       <c r="O289" s="11"/>
       <c r="P289" s="11"/>
       <c r="Q289" s="11"/>
@@ -20297,457 +20549,443 @@
       <c r="X289" s="11"/>
     </row>
     <row r="290" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="A290" s="31"/>
-      <c r="B290" s="32">
-        <v>1</v>
-      </c>
-      <c r="C290" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D290" s="35" t="s">
-        <v>984</v>
-      </c>
-      <c r="E290" s="35" t="s">
-        <v>986</v>
-      </c>
-      <c r="F290" s="35" t="s">
-        <v>987</v>
-      </c>
-      <c r="G290" s="36">
-        <v>477</v>
-      </c>
-      <c r="H290" s="35" t="s">
-        <v>991</v>
-      </c>
-      <c r="I290" s="35" t="s">
-        <v>992</v>
-      </c>
-      <c r="J290" s="35" t="s">
-        <v>993</v>
-      </c>
-      <c r="K290" s="35" t="s">
-        <v>994</v>
-      </c>
-      <c r="L290" s="35" t="s">
-        <v>995</v>
-      </c>
-      <c r="M290" s="35" t="s">
-        <v>996</v>
-      </c>
-      <c r="N290" s="35"/>
-      <c r="O290" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="P290" s="50"/>
-      <c r="Q290" s="35"/>
-      <c r="R290" s="35"/>
-      <c r="S290" s="35"/>
-      <c r="T290" s="35"/>
-      <c r="U290" s="35"/>
-      <c r="V290" s="35"/>
-      <c r="W290" s="35"/>
-      <c r="X290" s="35"/>
+      <c r="B290" s="9">
+        <v>1</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D290" s="10"/>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I290" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="J290" s="11"/>
+      <c r="K290" s="11"/>
+      <c r="L290" s="11"/>
+      <c r="M290" s="11"/>
+      <c r="N290" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="O290" s="11"/>
+      <c r="P290" s="11"/>
+      <c r="Q290" s="11"/>
+      <c r="R290" s="11"/>
+      <c r="S290" s="11"/>
+      <c r="T290" s="11"/>
+      <c r="U290" s="11"/>
+      <c r="V290" s="11"/>
+      <c r="W290" s="11"/>
+      <c r="X290" s="11"/>
     </row>
     <row r="291" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="A291" s="31"/>
-      <c r="B291" s="32">
-        <v>1</v>
-      </c>
-      <c r="C291" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D291" s="38" t="s">
-        <v>984</v>
-      </c>
-      <c r="E291" s="38" t="s">
-        <v>986</v>
-      </c>
-      <c r="F291" s="38" t="s">
-        <v>987</v>
-      </c>
-      <c r="G291" s="39">
-        <v>479</v>
-      </c>
-      <c r="H291" s="38" t="s">
-        <v>991</v>
-      </c>
-      <c r="I291" s="38" t="s">
-        <v>997</v>
-      </c>
-      <c r="J291" s="38" t="s">
-        <v>998</v>
-      </c>
-      <c r="K291" s="38" t="s">
-        <v>999</v>
-      </c>
-      <c r="L291" s="38"/>
-      <c r="M291" s="38"/>
-      <c r="N291" s="38"/>
-      <c r="O291" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="P291" s="49"/>
-      <c r="Q291" s="38"/>
-      <c r="R291" s="38"/>
-      <c r="S291" s="38"/>
-      <c r="T291" s="38"/>
-      <c r="U291" s="38"/>
-      <c r="V291" s="38"/>
-      <c r="W291" s="38"/>
-      <c r="X291" s="38"/>
+      <c r="B291" s="9">
+        <v>1</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D291" s="10"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="2"/>
+      <c r="H291" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I291" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="J291" s="11"/>
+      <c r="K291" s="11"/>
+      <c r="L291" s="11"/>
+      <c r="M291" s="11"/>
+      <c r="N291" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="O291" s="11"/>
+      <c r="P291" s="11"/>
+      <c r="Q291" s="11"/>
+      <c r="R291" s="11"/>
+      <c r="S291" s="11"/>
+      <c r="T291" s="11"/>
+      <c r="U291" s="11"/>
+      <c r="V291" s="11"/>
+      <c r="W291" s="11"/>
+      <c r="X291" s="11"/>
     </row>
     <row r="292" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="A292" s="31"/>
-      <c r="B292" s="32">
-        <v>1</v>
-      </c>
-      <c r="C292" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D292" s="35" t="s">
-        <v>984</v>
-      </c>
-      <c r="E292" s="35" t="s">
-        <v>986</v>
-      </c>
-      <c r="F292" s="35" t="s">
-        <v>987</v>
-      </c>
-      <c r="G292" s="36">
-        <v>483</v>
-      </c>
-      <c r="H292" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I292" s="35" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J292" s="35" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K292" s="35" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L292" s="35"/>
-      <c r="M292" s="35"/>
-      <c r="N292" s="35"/>
-      <c r="O292" s="37"/>
-      <c r="P292" s="37"/>
-      <c r="Q292" s="35"/>
-      <c r="R292" s="35"/>
-      <c r="S292" s="35"/>
-      <c r="T292" s="35"/>
-      <c r="U292" s="35"/>
-      <c r="V292" s="35"/>
-      <c r="W292" s="35"/>
-      <c r="X292" s="35"/>
+      <c r="B292" s="9">
+        <v>1</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D292" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="F292" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="G292" s="2">
+        <v>191</v>
+      </c>
+      <c r="H292" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I292" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="J292" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="K292" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="L292" s="11"/>
+      <c r="M292" s="11"/>
+      <c r="N292" s="11"/>
+      <c r="O292" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P292" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q292" s="11"/>
+      <c r="R292" s="11"/>
+      <c r="S292" s="11"/>
+      <c r="T292" s="11"/>
+      <c r="U292" s="11"/>
+      <c r="V292" s="11"/>
+      <c r="W292" s="11"/>
+      <c r="X292" s="11"/>
     </row>
     <row r="293" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="A293" s="31"/>
-      <c r="B293" s="32">
-        <v>1</v>
-      </c>
-      <c r="C293" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D293" s="38" t="s">
-        <v>984</v>
-      </c>
-      <c r="E293" s="38" t="s">
-        <v>986</v>
-      </c>
-      <c r="F293" s="38" t="s">
-        <v>987</v>
-      </c>
-      <c r="G293" s="39">
-        <v>484</v>
-      </c>
-      <c r="H293" s="38" t="s">
-        <v>991</v>
-      </c>
-      <c r="I293" s="38" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J293" s="38" t="s">
-        <v>1004</v>
-      </c>
-      <c r="K293" s="38" t="s">
-        <v>1005</v>
-      </c>
-      <c r="L293" s="38"/>
-      <c r="M293" s="38"/>
-      <c r="N293" s="38"/>
-      <c r="O293" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="P293" s="49"/>
-      <c r="Q293" s="38"/>
-      <c r="R293" s="38"/>
-      <c r="S293" s="38"/>
-      <c r="T293" s="38"/>
-      <c r="U293" s="38"/>
-      <c r="V293" s="38"/>
-      <c r="W293" s="38"/>
-      <c r="X293" s="38"/>
+      <c r="B293" s="9">
+        <v>1</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D293" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="E293" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="F293" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="G293" s="2">
+        <v>192</v>
+      </c>
+      <c r="H293" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="I293" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="J293" s="11" t="s">
+        <v>961</v>
+      </c>
+      <c r="K293" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="L293" s="11"/>
+      <c r="M293" s="11"/>
+      <c r="N293" s="11"/>
+      <c r="O293" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P293" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="Q293" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="R293" s="11"/>
+      <c r="S293" s="11"/>
+      <c r="T293" s="11"/>
+      <c r="U293" s="11"/>
+      <c r="V293" s="11"/>
+      <c r="W293" s="11"/>
+      <c r="X293" s="11"/>
     </row>
     <row r="294" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="A294" s="31"/>
-      <c r="B294" s="32">
-        <v>1</v>
-      </c>
-      <c r="C294" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D294" s="35" t="s">
-        <v>984</v>
-      </c>
-      <c r="E294" s="35" t="s">
-        <v>986</v>
-      </c>
-      <c r="F294" s="35" t="s">
-        <v>987</v>
-      </c>
-      <c r="G294" s="36">
-        <v>489</v>
-      </c>
-      <c r="H294" s="35" t="s">
-        <v>991</v>
-      </c>
-      <c r="I294" s="35" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J294" s="35" t="s">
-        <v>1007</v>
-      </c>
-      <c r="K294" s="35" t="s">
-        <v>1008</v>
-      </c>
-      <c r="L294" s="35"/>
-      <c r="M294" s="35"/>
-      <c r="N294" s="35"/>
-      <c r="O294" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="P294" s="50"/>
-      <c r="Q294" s="35"/>
-      <c r="R294" s="35"/>
-      <c r="S294" s="35"/>
-      <c r="T294" s="35"/>
-      <c r="U294" s="35"/>
-      <c r="V294" s="35"/>
-      <c r="W294" s="35"/>
-      <c r="X294" s="35"/>
+      <c r="B294" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="E294" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="F294" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="G294" s="2">
+        <v>193</v>
+      </c>
+      <c r="H294" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="I294" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="J294" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="K294" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="L294" s="11"/>
+      <c r="M294" s="11"/>
+      <c r="N294" s="11"/>
+      <c r="O294" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P294" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="Q294" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="R294" s="11"/>
+      <c r="S294" s="11"/>
+      <c r="T294" s="11"/>
+      <c r="U294" s="11"/>
+      <c r="V294" s="11"/>
+      <c r="W294" s="11"/>
+      <c r="X294" s="11"/>
     </row>
     <row r="295" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="A295" s="31"/>
-      <c r="B295" s="32">
-        <v>1</v>
-      </c>
-      <c r="C295" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D295" s="38" t="s">
-        <v>984</v>
-      </c>
-      <c r="E295" s="38" t="s">
-        <v>986</v>
-      </c>
-      <c r="F295" s="38" t="s">
-        <v>987</v>
-      </c>
-      <c r="G295" s="39">
-        <v>491</v>
-      </c>
-      <c r="H295" s="38" t="s">
-        <v>991</v>
-      </c>
-      <c r="I295" s="38" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J295" s="38" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K295" s="38" t="s">
-        <v>1011</v>
-      </c>
-      <c r="L295" s="38"/>
-      <c r="M295" s="38"/>
-      <c r="N295" s="38"/>
-      <c r="O295" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="P295" s="49"/>
-      <c r="Q295" s="38"/>
-      <c r="R295" s="38"/>
-      <c r="S295" s="38"/>
-      <c r="T295" s="38"/>
-      <c r="U295" s="38"/>
-      <c r="V295" s="38"/>
-      <c r="W295" s="38"/>
-      <c r="X295" s="38"/>
+      <c r="B295" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D295" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="E295" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="F295" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="G295" s="2">
+        <v>194</v>
+      </c>
+      <c r="H295" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I295" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="J295" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="K295" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="L295" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="M295" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="N295" s="11"/>
+      <c r="O295" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P295" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="Q295" s="11"/>
+      <c r="R295" s="11"/>
+      <c r="S295" s="11"/>
+      <c r="T295" s="11"/>
+      <c r="U295" s="11"/>
+      <c r="V295" s="11"/>
+      <c r="W295" s="11"/>
+      <c r="X295" s="11"/>
     </row>
     <row r="296" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="A296" s="31"/>
-      <c r="B296" s="32">
-        <v>1</v>
-      </c>
-      <c r="C296" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D296" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="E296" s="33"/>
-      <c r="F296" s="33"/>
-      <c r="G296" s="34"/>
-      <c r="H296" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="I296" s="33" t="s">
-        <v>985</v>
-      </c>
-      <c r="J296" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="K296" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="L296" s="33"/>
-      <c r="M296" s="33"/>
-      <c r="N296" s="33"/>
-      <c r="O296" s="48"/>
-      <c r="P296" s="48"/>
-      <c r="Q296" s="33"/>
-      <c r="R296" s="33"/>
-      <c r="S296" s="33"/>
-      <c r="T296" s="33"/>
-      <c r="U296" s="33"/>
-      <c r="V296" s="33"/>
-      <c r="W296" s="33"/>
-      <c r="X296" s="33"/>
+      <c r="B296" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="E296" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="F296" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="G296" s="2">
+        <v>195</v>
+      </c>
+      <c r="H296" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I296" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="J296" s="11" t="s">
+        <v>979</v>
+      </c>
+      <c r="K296" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="L296" s="11" t="s">
+        <v>981</v>
+      </c>
+      <c r="M296" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="N296" s="11"/>
+      <c r="O296" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P296" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q296" s="11"/>
+      <c r="R296" s="11"/>
+      <c r="S296" s="11"/>
+      <c r="T296" s="11"/>
+      <c r="U296" s="11"/>
+      <c r="V296" s="11"/>
+      <c r="W296" s="11"/>
+      <c r="X296" s="11"/>
     </row>
     <row r="297" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B297" s="9">
         <v>1</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D297" s="14" t="s">
-        <v>984</v>
-      </c>
-      <c r="E297" s="14"/>
-      <c r="F297" s="14"/>
-      <c r="G297" s="13"/>
-      <c r="H297" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I297" s="14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J297" s="14" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K297" s="14" t="s">
-        <v>1014</v>
-      </c>
-      <c r="L297" s="14"/>
-      <c r="M297" s="14"/>
-      <c r="N297" s="14"/>
-      <c r="O297" s="14"/>
-      <c r="P297" s="14"/>
-      <c r="Q297" s="14"/>
-      <c r="R297" s="14"/>
-      <c r="S297" s="14"/>
-      <c r="T297" s="14"/>
-      <c r="U297" s="14"/>
-      <c r="V297" s="14"/>
-      <c r="W297" s="14"/>
-      <c r="X297" s="14"/>
+        <v>158</v>
+      </c>
+      <c r="D297" s="18"/>
+      <c r="E297" s="20"/>
+      <c r="F297" s="20"/>
+      <c r="G297" s="19"/>
+      <c r="H297" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="I297" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="J297" s="20"/>
+      <c r="K297" s="20"/>
+      <c r="L297" s="20"/>
+      <c r="M297" s="20"/>
+      <c r="N297" s="20"/>
+      <c r="O297" s="20"/>
+      <c r="P297" s="20"/>
+      <c r="Q297" s="20"/>
+      <c r="R297" s="20"/>
+      <c r="S297" s="20"/>
+      <c r="T297" s="20"/>
+      <c r="U297" s="20"/>
+      <c r="V297" s="20"/>
+      <c r="W297" s="20"/>
+      <c r="X297" s="20"/>
     </row>
     <row r="298" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B298" s="9">
         <v>1</v>
       </c>
       <c r="C298" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D298" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="E298" s="14"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="13"/>
+      <c r="H298" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I298" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="J298" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="K298" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="L298" s="14"/>
+      <c r="M298" s="14"/>
+      <c r="N298" s="14"/>
+      <c r="O298" s="14"/>
+      <c r="P298" s="14"/>
+      <c r="Q298" s="14"/>
+      <c r="R298" s="14"/>
+      <c r="S298" s="14"/>
+      <c r="T298" s="14"/>
+      <c r="U298" s="14"/>
+      <c r="V298" s="14"/>
+      <c r="W298" s="14"/>
+      <c r="X298" s="14"/>
+    </row>
+    <row r="299" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="A299" s="31"/>
+      <c r="B299" s="32">
+        <v>1</v>
+      </c>
+      <c r="C299" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D298" s="16" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E298" s="40" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F298" s="40" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G298" s="17">
-        <v>466</v>
-      </c>
-      <c r="H298" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="I298" s="41" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J298" s="41" t="s">
-        <v>1018</v>
-      </c>
-      <c r="K298" s="41" t="s">
-        <v>1019</v>
-      </c>
-      <c r="L298" s="41"/>
-      <c r="M298" s="41"/>
-      <c r="N298" s="41"/>
-      <c r="O298" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="P298" s="41"/>
-    </row>
-    <row r="299" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="B299" s="9">
-        <v>1</v>
-      </c>
-      <c r="C299" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D299" s="16" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E299" s="40" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F299" s="40" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G299" s="17">
-        <v>469</v>
-      </c>
-      <c r="H299" s="11" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I299" s="41" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J299" s="41" t="s">
-        <v>1022</v>
-      </c>
-      <c r="K299" s="41" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L299" s="41" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M299" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="N299" s="41"/>
-      <c r="O299" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="P299" s="11" t="s">
-        <v>1026</v>
-      </c>
+      <c r="D299" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="E299" s="33"/>
+      <c r="F299" s="33"/>
+      <c r="G299" s="34"/>
+      <c r="H299" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I299" s="33" t="s">
+        <v>985</v>
+      </c>
+      <c r="J299" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="K299" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="L299" s="33"/>
+      <c r="M299" s="33"/>
+      <c r="N299" s="33"/>
+      <c r="O299" s="48"/>
+      <c r="P299" s="48"/>
+      <c r="Q299" s="33"/>
+      <c r="R299" s="33"/>
+      <c r="S299" s="33"/>
+      <c r="T299" s="33"/>
+      <c r="U299" s="33"/>
+      <c r="V299" s="33"/>
+      <c r="W299" s="33"/>
+      <c r="X299" s="33"/>
     </row>
     <row r="300" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B300" s="9">
@@ -20756,444 +20994,1027 @@
       <c r="C300" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D300" s="16" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E300" s="40" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F300" s="40" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G300" s="17">
-        <v>469</v>
-      </c>
-      <c r="H300" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="I300" s="41" t="s">
-        <v>1027</v>
+      <c r="D300" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="E300" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="F300" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="G300" s="2">
+        <v>476</v>
+      </c>
+      <c r="H300" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I300" s="11" t="s">
+        <v>988</v>
       </c>
       <c r="J300" s="11" t="s">
-        <v>298</v>
+        <v>989</v>
       </c>
       <c r="K300" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="L300" s="41"/>
-      <c r="M300" s="41"/>
-      <c r="N300" s="41"/>
-      <c r="O300" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="P300" s="11" t="s">
-        <v>1028</v>
-      </c>
+        <v>990</v>
+      </c>
+      <c r="L300" s="11"/>
+      <c r="M300" s="11"/>
+      <c r="N300" s="11"/>
+      <c r="O300" s="11"/>
+      <c r="P300" s="11"/>
+      <c r="Q300" s="11"/>
+      <c r="R300" s="11"/>
+      <c r="S300" s="11"/>
+      <c r="T300" s="11"/>
+      <c r="U300" s="11"/>
+      <c r="V300" s="11"/>
+      <c r="W300" s="11"/>
+      <c r="X300" s="11"/>
     </row>
     <row r="301" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="A301" s="31"/>
-      <c r="B301" s="9">
-        <v>1</v>
-      </c>
-      <c r="C301" s="9" t="s">
+      <c r="B301" s="32">
+        <v>1</v>
+      </c>
+      <c r="C301" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D301" s="33" t="s">
+      <c r="D301" s="35" t="s">
         <v>984</v>
       </c>
-      <c r="E301" s="33"/>
-      <c r="F301" s="33"/>
-      <c r="G301" s="34"/>
-      <c r="H301" s="33" t="s">
+      <c r="E301" s="35" t="s">
+        <v>986</v>
+      </c>
+      <c r="F301" s="35" t="s">
+        <v>987</v>
+      </c>
+      <c r="G301" s="36">
+        <v>477</v>
+      </c>
+      <c r="H301" s="35" t="s">
+        <v>991</v>
+      </c>
+      <c r="I301" s="35" t="s">
+        <v>992</v>
+      </c>
+      <c r="J301" s="35" t="s">
+        <v>993</v>
+      </c>
+      <c r="K301" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="L301" s="35" t="s">
+        <v>995</v>
+      </c>
+      <c r="M301" s="35" t="s">
+        <v>996</v>
+      </c>
+      <c r="N301" s="35"/>
+      <c r="O301" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P301" s="50"/>
+      <c r="Q301" s="35"/>
+      <c r="R301" s="35"/>
+      <c r="S301" s="35"/>
+      <c r="T301" s="35"/>
+      <c r="U301" s="35"/>
+      <c r="V301" s="35"/>
+      <c r="W301" s="35"/>
+      <c r="X301" s="35"/>
+    </row>
+    <row r="302" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="A302" s="31"/>
+      <c r="B302" s="32">
+        <v>1</v>
+      </c>
+      <c r="C302" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D302" s="38" t="s">
+        <v>984</v>
+      </c>
+      <c r="E302" s="38" t="s">
+        <v>986</v>
+      </c>
+      <c r="F302" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="G302" s="39">
+        <v>479</v>
+      </c>
+      <c r="H302" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="I302" s="38" t="s">
+        <v>997</v>
+      </c>
+      <c r="J302" s="38" t="s">
+        <v>998</v>
+      </c>
+      <c r="K302" s="38" t="s">
+        <v>999</v>
+      </c>
+      <c r="L302" s="38"/>
+      <c r="M302" s="38"/>
+      <c r="N302" s="38"/>
+      <c r="O302" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P302" s="49"/>
+      <c r="Q302" s="38"/>
+      <c r="R302" s="38"/>
+      <c r="S302" s="38"/>
+      <c r="T302" s="38"/>
+      <c r="U302" s="38"/>
+      <c r="V302" s="38"/>
+      <c r="W302" s="38"/>
+      <c r="X302" s="38"/>
+    </row>
+    <row r="303" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="A303" s="31"/>
+      <c r="B303" s="32">
+        <v>1</v>
+      </c>
+      <c r="C303" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D303" s="35" t="s">
+        <v>984</v>
+      </c>
+      <c r="E303" s="35" t="s">
+        <v>986</v>
+      </c>
+      <c r="F303" s="35" t="s">
+        <v>987</v>
+      </c>
+      <c r="G303" s="36">
+        <v>483</v>
+      </c>
+      <c r="H303" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I303" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J303" s="35" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K303" s="35" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L303" s="35"/>
+      <c r="M303" s="35"/>
+      <c r="N303" s="35"/>
+      <c r="O303" s="37"/>
+      <c r="P303" s="37"/>
+      <c r="Q303" s="35"/>
+      <c r="R303" s="35"/>
+      <c r="S303" s="35"/>
+      <c r="T303" s="35"/>
+      <c r="U303" s="35"/>
+      <c r="V303" s="35"/>
+      <c r="W303" s="35"/>
+      <c r="X303" s="35"/>
+    </row>
+    <row r="304" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="A304" s="31"/>
+      <c r="B304" s="32">
+        <v>1</v>
+      </c>
+      <c r="C304" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D304" s="38" t="s">
+        <v>984</v>
+      </c>
+      <c r="E304" s="38" t="s">
+        <v>986</v>
+      </c>
+      <c r="F304" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="G304" s="39">
+        <v>484</v>
+      </c>
+      <c r="H304" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="I304" s="38" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J304" s="38" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K304" s="38" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L304" s="38"/>
+      <c r="M304" s="38"/>
+      <c r="N304" s="38"/>
+      <c r="O304" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P304" s="49"/>
+      <c r="Q304" s="38"/>
+      <c r="R304" s="38"/>
+      <c r="S304" s="38"/>
+      <c r="T304" s="38"/>
+      <c r="U304" s="38"/>
+      <c r="V304" s="38"/>
+      <c r="W304" s="38"/>
+      <c r="X304" s="38"/>
+    </row>
+    <row r="305" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="A305" s="31"/>
+      <c r="B305" s="32">
+        <v>1</v>
+      </c>
+      <c r="C305" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D305" s="35" t="s">
+        <v>984</v>
+      </c>
+      <c r="E305" s="35" t="s">
+        <v>986</v>
+      </c>
+      <c r="F305" s="35" t="s">
+        <v>987</v>
+      </c>
+      <c r="G305" s="36">
+        <v>489</v>
+      </c>
+      <c r="H305" s="35" t="s">
+        <v>991</v>
+      </c>
+      <c r="I305" s="35" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J305" s="35" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K305" s="35" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L305" s="35"/>
+      <c r="M305" s="35"/>
+      <c r="N305" s="35"/>
+      <c r="O305" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P305" s="50"/>
+      <c r="Q305" s="35"/>
+      <c r="R305" s="35"/>
+      <c r="S305" s="35"/>
+      <c r="T305" s="35"/>
+      <c r="U305" s="35"/>
+      <c r="V305" s="35"/>
+      <c r="W305" s="35"/>
+      <c r="X305" s="35"/>
+    </row>
+    <row r="306" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="A306" s="31"/>
+      <c r="B306" s="32">
+        <v>1</v>
+      </c>
+      <c r="C306" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D306" s="38" t="s">
+        <v>984</v>
+      </c>
+      <c r="E306" s="38" t="s">
+        <v>986</v>
+      </c>
+      <c r="F306" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="G306" s="39">
+        <v>491</v>
+      </c>
+      <c r="H306" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="I306" s="38" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J306" s="38" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K306" s="38" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L306" s="38"/>
+      <c r="M306" s="38"/>
+      <c r="N306" s="38"/>
+      <c r="O306" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P306" s="49"/>
+      <c r="Q306" s="38"/>
+      <c r="R306" s="38"/>
+      <c r="S306" s="38"/>
+      <c r="T306" s="38"/>
+      <c r="U306" s="38"/>
+      <c r="V306" s="38"/>
+      <c r="W306" s="38"/>
+      <c r="X306" s="38"/>
+    </row>
+    <row r="307" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="A307" s="31"/>
+      <c r="B307" s="32">
+        <v>1</v>
+      </c>
+      <c r="C307" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D307" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="E307" s="33"/>
+      <c r="F307" s="33"/>
+      <c r="G307" s="34"/>
+      <c r="H307" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="I301" s="33" t="s">
+      <c r="I307" s="33" t="s">
+        <v>985</v>
+      </c>
+      <c r="J307" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="K307" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="L307" s="33"/>
+      <c r="M307" s="33"/>
+      <c r="N307" s="33"/>
+      <c r="O307" s="48"/>
+      <c r="P307" s="48"/>
+      <c r="Q307" s="33"/>
+      <c r="R307" s="33"/>
+      <c r="S307" s="33"/>
+      <c r="T307" s="33"/>
+      <c r="U307" s="33"/>
+      <c r="V307" s="33"/>
+      <c r="W307" s="33"/>
+      <c r="X307" s="33"/>
+    </row>
+    <row r="308" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B308" s="9">
+        <v>1</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D308" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="E308" s="14"/>
+      <c r="F308" s="14"/>
+      <c r="G308" s="13"/>
+      <c r="H308" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I308" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="J301" s="14" t="s">
+      <c r="J308" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="K301" s="14" t="s">
+      <c r="K308" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="L301" s="33"/>
-      <c r="M301" s="33"/>
-      <c r="N301" s="33"/>
-      <c r="O301" s="33"/>
-      <c r="P301" s="33"/>
-      <c r="Q301" s="33"/>
-      <c r="R301" s="33"/>
-      <c r="S301" s="33"/>
-      <c r="T301" s="33"/>
-      <c r="U301" s="33"/>
-      <c r="V301" s="33"/>
-      <c r="W301" s="33"/>
-      <c r="X301" s="33"/>
-    </row>
-    <row r="302" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="B302" s="9">
-        <v>1</v>
-      </c>
-      <c r="C302" s="9" t="s">
+      <c r="L308" s="14"/>
+      <c r="M308" s="14"/>
+      <c r="N308" s="14"/>
+      <c r="O308" s="14"/>
+      <c r="P308" s="14"/>
+      <c r="Q308" s="14"/>
+      <c r="R308" s="14"/>
+      <c r="S308" s="14"/>
+      <c r="T308" s="14"/>
+      <c r="U308" s="14"/>
+      <c r="V308" s="14"/>
+      <c r="W308" s="14"/>
+      <c r="X308" s="14"/>
+    </row>
+    <row r="309" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B309" s="9">
+        <v>1</v>
+      </c>
+      <c r="C309" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D302" s="14"/>
-      <c r="E302" s="14"/>
-      <c r="F302" s="14"/>
-      <c r="G302" s="13"/>
-      <c r="H302" s="14" t="s">
+      <c r="D309" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E309" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F309" s="40" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G309" s="17">
+        <v>466</v>
+      </c>
+      <c r="H309" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I309" s="41" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J309" s="41" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K309" s="41" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L309" s="41"/>
+      <c r="M309" s="41"/>
+      <c r="N309" s="41"/>
+      <c r="O309" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P309" s="41"/>
+    </row>
+    <row r="310" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B310" s="9">
+        <v>1</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D310" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E310" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F310" s="40" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G310" s="17">
+        <v>469</v>
+      </c>
+      <c r="H310" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I310" s="41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J310" s="41" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K310" s="41" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L310" s="41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M310" s="41" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N310" s="41"/>
+      <c r="O310" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P310" s="11" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="311" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B311" s="9">
+        <v>1</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D311" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E311" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F311" s="40" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G311" s="17">
+        <v>469</v>
+      </c>
+      <c r="H311" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="I311" s="41" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J311" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="K311" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="L311" s="41"/>
+      <c r="M311" s="41"/>
+      <c r="N311" s="41"/>
+      <c r="O311" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P311" s="11" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="312" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="A312" s="31"/>
+      <c r="B312" s="9">
+        <v>1</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D312" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="E312" s="33"/>
+      <c r="F312" s="33"/>
+      <c r="G312" s="34"/>
+      <c r="H312" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="I302" s="14" t="s">
+      <c r="I312" s="33" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J312" s="14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K312" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L312" s="33"/>
+      <c r="M312" s="33"/>
+      <c r="N312" s="33"/>
+      <c r="O312" s="33"/>
+      <c r="P312" s="33"/>
+      <c r="Q312" s="33"/>
+      <c r="R312" s="33"/>
+      <c r="S312" s="33"/>
+      <c r="T312" s="33"/>
+      <c r="U312" s="33"/>
+      <c r="V312" s="33"/>
+      <c r="W312" s="33"/>
+      <c r="X312" s="33"/>
+    </row>
+    <row r="313" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="A313" s="31"/>
+      <c r="B313" s="32">
+        <v>2</v>
+      </c>
+      <c r="C313" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D313" s="33" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E313" s="33"/>
+      <c r="F313" s="33"/>
+      <c r="G313" s="34"/>
+      <c r="H313" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I313" s="33" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J313" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="K313" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="L313" s="33"/>
+      <c r="M313" s="33"/>
+      <c r="N313" s="33"/>
+      <c r="O313" s="48"/>
+      <c r="P313" s="48"/>
+      <c r="Q313" s="33"/>
+      <c r="R313" s="33"/>
+      <c r="S313" s="33"/>
+      <c r="T313" s="33"/>
+      <c r="U313" s="33"/>
+      <c r="V313" s="33"/>
+      <c r="W313" s="33"/>
+      <c r="X313" s="33"/>
+    </row>
+    <row r="314" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B314" s="9">
+        <v>2</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D314" s="16" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E314" s="40" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F314" s="40" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G314" s="17">
+        <v>543</v>
+      </c>
+      <c r="H314" s="41" t="s">
+        <v>2082</v>
+      </c>
+      <c r="I314" s="41" t="s">
+        <v>2070</v>
+      </c>
+      <c r="J314" s="11" t="s">
+        <v>2071</v>
+      </c>
+      <c r="K314" s="11" t="s">
+        <v>2072</v>
+      </c>
+      <c r="L314" s="41"/>
+      <c r="M314" s="41"/>
+      <c r="N314" s="41"/>
+      <c r="O314" s="41" t="s">
+        <v>2073</v>
+      </c>
+      <c r="P314" s="11"/>
+    </row>
+    <row r="315" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B315" s="9">
+        <v>2</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D315" s="16" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E315" s="40" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F315" s="40" t="s">
+        <v>2115</v>
+      </c>
+      <c r="G315" s="17">
+        <v>552</v>
+      </c>
+      <c r="H315" s="41" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I315" s="41" t="s">
+        <v>2076</v>
+      </c>
+      <c r="J315" s="11" t="s">
+        <v>2077</v>
+      </c>
+      <c r="K315" s="11" t="s">
+        <v>2078</v>
+      </c>
+      <c r="L315" s="41"/>
+      <c r="M315" s="41"/>
+      <c r="N315" s="41"/>
+      <c r="O315" s="41" t="s">
+        <v>2073</v>
+      </c>
+      <c r="P315" s="11" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="316" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="A316" s="31"/>
+      <c r="B316" s="9">
+        <v>2</v>
+      </c>
+      <c r="C316" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D316" s="33" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E316" s="33"/>
+      <c r="F316" s="33"/>
+      <c r="G316" s="34"/>
+      <c r="H316" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="I316" s="33" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J316" s="14" t="s">
+        <v>2080</v>
+      </c>
+      <c r="K316" s="14" t="s">
+        <v>2081</v>
+      </c>
+      <c r="L316" s="33"/>
+      <c r="M316" s="33"/>
+      <c r="N316" s="33"/>
+      <c r="O316" s="33"/>
+      <c r="P316" s="33"/>
+      <c r="Q316" s="33"/>
+      <c r="R316" s="33"/>
+      <c r="S316" s="33"/>
+      <c r="T316" s="33"/>
+      <c r="U316" s="33"/>
+      <c r="V316" s="33"/>
+      <c r="W316" s="33"/>
+      <c r="X316" s="33"/>
+    </row>
+    <row r="317" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B317" s="9">
+        <v>1</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D317" s="14"/>
+      <c r="E317" s="14"/>
+      <c r="F317" s="14"/>
+      <c r="G317" s="13"/>
+      <c r="H317" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I317" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J302" s="14" t="s">
+      <c r="J317" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="K302" s="14" t="s">
+      <c r="K317" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L302" s="14"/>
-      <c r="M302" s="14"/>
-      <c r="N302" s="14"/>
-      <c r="O302" s="14"/>
-      <c r="P302" s="14"/>
-      <c r="Q302" s="14"/>
-      <c r="R302" s="14"/>
-      <c r="S302" s="14"/>
-      <c r="T302" s="14"/>
-      <c r="U302" s="14"/>
-      <c r="V302" s="14"/>
-      <c r="W302" s="14"/>
-      <c r="X302" s="14"/>
-    </row>
-    <row r="303" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="B303" s="9">
-        <v>1</v>
-      </c>
-      <c r="C303" s="9" t="s">
+      <c r="L317" s="14"/>
+      <c r="M317" s="14"/>
+      <c r="N317" s="14"/>
+      <c r="O317" s="14"/>
+      <c r="P317" s="14"/>
+      <c r="Q317" s="14"/>
+      <c r="R317" s="14"/>
+      <c r="S317" s="14"/>
+      <c r="T317" s="14"/>
+      <c r="U317" s="14"/>
+      <c r="V317" s="14"/>
+      <c r="W317" s="14"/>
+      <c r="X317" s="14"/>
+    </row>
+    <row r="318" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B318" s="9">
+        <v>1</v>
+      </c>
+      <c r="C318" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D303" s="14"/>
-      <c r="E303" s="14"/>
-      <c r="F303" s="14"/>
-      <c r="G303" s="13"/>
-      <c r="H303" s="14" t="s">
+      <c r="D318" s="14"/>
+      <c r="E318" s="14"/>
+      <c r="F318" s="14"/>
+      <c r="G318" s="13"/>
+      <c r="H318" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I303" s="14" t="s">
+      <c r="I318" s="14" t="s">
         <v>1029</v>
       </c>
-      <c r="J303" s="14" t="s">
+      <c r="J318" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="K303" s="14" t="s">
+      <c r="K318" s="14" t="s">
         <v>1031</v>
       </c>
-      <c r="L303" s="14"/>
-      <c r="M303" s="14"/>
-      <c r="N303" s="14"/>
-      <c r="O303" s="14"/>
-      <c r="P303" s="14"/>
-      <c r="Q303" s="14"/>
-      <c r="R303" s="14"/>
-      <c r="S303" s="14"/>
-      <c r="T303" s="14"/>
-      <c r="U303" s="14"/>
-      <c r="V303" s="14"/>
-      <c r="W303" s="14"/>
-      <c r="X303" s="14"/>
-    </row>
-    <row r="304" spans="1:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="B304" s="9">
-        <v>1</v>
-      </c>
-      <c r="C304" s="9" t="s">
+      <c r="L318" s="14"/>
+      <c r="M318" s="14"/>
+      <c r="N318" s="14"/>
+      <c r="O318" s="14"/>
+      <c r="P318" s="14"/>
+      <c r="Q318" s="14"/>
+      <c r="R318" s="14"/>
+      <c r="S318" s="14"/>
+      <c r="T318" s="14"/>
+      <c r="U318" s="14"/>
+      <c r="V318" s="14"/>
+      <c r="W318" s="14"/>
+      <c r="X318" s="14"/>
+    </row>
+    <row r="319" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B319" s="9">
+        <v>1</v>
+      </c>
+      <c r="C319" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D304" s="10"/>
-      <c r="E304" s="11"/>
-      <c r="F304" s="11"/>
-      <c r="G304" s="2"/>
-      <c r="H304" s="11" t="s">
+      <c r="D319" s="10"/>
+      <c r="E319" s="11"/>
+      <c r="F319" s="11"/>
+      <c r="G319" s="2"/>
+      <c r="H319" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="I304" s="11" t="s">
+      <c r="I319" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="J304" s="15" t="s">
+      <c r="J319" s="15" t="s">
         <v>1034</v>
       </c>
-      <c r="K304" s="15" t="s">
+      <c r="K319" s="15" t="s">
         <v>1035</v>
       </c>
-      <c r="L304" s="11"/>
-      <c r="M304" s="11"/>
-      <c r="N304" s="11"/>
-      <c r="O304" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P304" s="11"/>
-      <c r="Q304" s="11"/>
-      <c r="R304" s="11"/>
-      <c r="S304" s="11"/>
-      <c r="T304" s="11"/>
-      <c r="U304" s="11"/>
-      <c r="V304" s="11"/>
-      <c r="W304" s="11"/>
-      <c r="X304" s="11"/>
-    </row>
-    <row r="305" spans="2:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="B305" s="9">
-        <v>1</v>
-      </c>
-      <c r="C305" s="9" t="s">
+      <c r="L319" s="11"/>
+      <c r="M319" s="11"/>
+      <c r="N319" s="11"/>
+      <c r="O319" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P319" s="11"/>
+      <c r="Q319" s="11"/>
+      <c r="R319" s="11"/>
+      <c r="S319" s="11"/>
+      <c r="T319" s="11"/>
+      <c r="U319" s="11"/>
+      <c r="V319" s="11"/>
+      <c r="W319" s="11"/>
+      <c r="X319" s="11"/>
+    </row>
+    <row r="320" spans="1:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B320" s="9">
+        <v>1</v>
+      </c>
+      <c r="C320" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D305" s="14"/>
-      <c r="E305" s="14"/>
-      <c r="F305" s="14"/>
-      <c r="G305" s="13"/>
-      <c r="H305" s="14" t="s">
+      <c r="D320" s="14"/>
+      <c r="E320" s="14"/>
+      <c r="F320" s="14"/>
+      <c r="G320" s="13"/>
+      <c r="H320" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I305" s="14" t="s">
+      <c r="I320" s="14" t="s">
         <v>1029</v>
       </c>
-      <c r="J305" s="14"/>
-      <c r="K305" s="14"/>
-      <c r="L305" s="14"/>
-      <c r="M305" s="14"/>
-      <c r="N305" s="14"/>
-      <c r="O305" s="14"/>
-      <c r="P305" s="14"/>
-      <c r="Q305" s="14"/>
-      <c r="R305" s="14"/>
-      <c r="S305" s="14"/>
-      <c r="T305" s="14"/>
-      <c r="U305" s="14"/>
-      <c r="V305" s="14"/>
-      <c r="W305" s="14"/>
-      <c r="X305" s="14"/>
-    </row>
-    <row r="306" spans="2:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="B306" s="9">
-        <v>1</v>
-      </c>
-      <c r="C306" s="9" t="s">
+      <c r="J320" s="14"/>
+      <c r="K320" s="14"/>
+      <c r="L320" s="14"/>
+      <c r="M320" s="14"/>
+      <c r="N320" s="14"/>
+      <c r="O320" s="14"/>
+      <c r="P320" s="14"/>
+      <c r="Q320" s="14"/>
+      <c r="R320" s="14"/>
+      <c r="S320" s="14"/>
+      <c r="T320" s="14"/>
+      <c r="U320" s="14"/>
+      <c r="V320" s="14"/>
+      <c r="W320" s="14"/>
+      <c r="X320" s="14"/>
+    </row>
+    <row r="321" spans="2:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B321" s="9">
+        <v>1</v>
+      </c>
+      <c r="C321" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D306" s="10"/>
-      <c r="E306" s="11"/>
-      <c r="F306" s="11"/>
-      <c r="G306" s="2"/>
-      <c r="H306" s="11" t="s">
+      <c r="D321" s="10"/>
+      <c r="E321" s="11"/>
+      <c r="F321" s="11"/>
+      <c r="G321" s="2"/>
+      <c r="H321" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I306" s="11" t="s">
+      <c r="I321" s="11" t="s">
         <v>1036</v>
       </c>
-      <c r="J306" s="15" t="s">
+      <c r="J321" s="15" t="s">
         <v>1037</v>
       </c>
-      <c r="K306" s="15" t="s">
+      <c r="K321" s="15" t="s">
         <v>1038</v>
       </c>
-      <c r="L306" s="11"/>
-      <c r="M306" s="11"/>
-      <c r="N306" s="11"/>
-      <c r="O306" s="11"/>
-      <c r="P306" s="11"/>
-      <c r="Q306" s="11"/>
-      <c r="R306" s="11"/>
-      <c r="S306" s="11"/>
-      <c r="T306" s="11"/>
-      <c r="U306" s="11"/>
-      <c r="V306" s="11"/>
-      <c r="W306" s="11"/>
-      <c r="X306" s="11"/>
-    </row>
-    <row r="307" spans="2:24" ht="12" x14ac:dyDescent="0.3">
-      <c r="B307" s="9">
-        <v>1</v>
-      </c>
-      <c r="C307" s="9" t="s">
+      <c r="L321" s="11"/>
+      <c r="M321" s="11"/>
+      <c r="N321" s="11"/>
+      <c r="O321" s="11"/>
+      <c r="P321" s="11"/>
+      <c r="Q321" s="11"/>
+      <c r="R321" s="11"/>
+      <c r="S321" s="11"/>
+      <c r="T321" s="11"/>
+      <c r="U321" s="11"/>
+      <c r="V321" s="11"/>
+      <c r="W321" s="11"/>
+      <c r="X321" s="11"/>
+    </row>
+    <row r="322" spans="2:24" ht="12" x14ac:dyDescent="0.3">
+      <c r="B322" s="9">
+        <v>1</v>
+      </c>
+      <c r="C322" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D307" s="10"/>
-      <c r="E307" s="11"/>
-      <c r="F307" s="11"/>
-      <c r="G307" s="2"/>
-      <c r="H307" s="11" t="s">
+      <c r="D322" s="10"/>
+      <c r="E322" s="11"/>
+      <c r="F322" s="11"/>
+      <c r="G322" s="2"/>
+      <c r="H322" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="I307" s="11" t="s">
+      <c r="I322" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="J307" s="15" t="s">
+      <c r="J322" s="15" t="s">
         <v>1040</v>
       </c>
-      <c r="K307" s="15" t="s">
+      <c r="K322" s="15" t="s">
         <v>1041</v>
       </c>
-      <c r="L307" s="11"/>
-      <c r="M307" s="11"/>
-      <c r="N307" s="11"/>
-      <c r="O307" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P307" s="11"/>
-      <c r="Q307" s="11"/>
-      <c r="R307" s="11"/>
-      <c r="S307" s="11"/>
-      <c r="T307" s="11"/>
-      <c r="U307" s="11"/>
-      <c r="V307" s="11"/>
-      <c r="W307" s="11"/>
-      <c r="X307" s="11"/>
-    </row>
-    <row r="308" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D308" s="5"/>
-      <c r="E308" s="7"/>
-      <c r="F308" s="7"/>
-    </row>
-    <row r="309" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D309" s="5"/>
-      <c r="E309" s="7"/>
-      <c r="F309" s="7"/>
-    </row>
-    <row r="310" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D310" s="5"/>
-      <c r="E310" s="7"/>
-      <c r="F310" s="7"/>
-    </row>
-    <row r="311" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D311" s="5"/>
-      <c r="E311" s="7"/>
-      <c r="F311" s="7"/>
-    </row>
-    <row r="312" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D312" s="5"/>
-      <c r="E312" s="5"/>
-      <c r="F312" s="7"/>
-      <c r="H312" s="7"/>
-    </row>
-    <row r="313" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D313" s="5"/>
-      <c r="E313" s="7"/>
-      <c r="F313" s="7"/>
-    </row>
-    <row r="314" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D314" s="5"/>
-      <c r="E314" s="7"/>
-      <c r="F314" s="7"/>
-    </row>
-    <row r="315" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D315" s="5"/>
-      <c r="E315" s="7"/>
-      <c r="F315" s="7"/>
-    </row>
-    <row r="316" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D316" s="5"/>
-      <c r="E316" s="7"/>
-      <c r="F316" s="7"/>
-    </row>
-    <row r="317" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D317" s="7"/>
-      <c r="E317" s="7"/>
-      <c r="F317" s="7"/>
-    </row>
-    <row r="318" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D318" s="7"/>
-      <c r="E318" s="7"/>
-      <c r="F318" s="7"/>
-    </row>
-    <row r="319" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D319" s="7"/>
-      <c r="E319" s="7"/>
-      <c r="F319" s="7"/>
-    </row>
-    <row r="320" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D320" s="7"/>
-      <c r="E320" s="7"/>
-      <c r="F320" s="7"/>
-    </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D321" s="7"/>
-      <c r="E321" s="7"/>
-      <c r="F321" s="7"/>
-    </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D322" s="7"/>
-      <c r="E322" s="7"/>
-      <c r="F322" s="7"/>
-    </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D323" s="7"/>
+      <c r="L322" s="11"/>
+      <c r="M322" s="11"/>
+      <c r="N322" s="11"/>
+      <c r="O322" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P322" s="11"/>
+      <c r="Q322" s="11"/>
+      <c r="R322" s="11"/>
+      <c r="S322" s="11"/>
+      <c r="T322" s="11"/>
+      <c r="U322" s="11"/>
+      <c r="V322" s="11"/>
+      <c r="W322" s="11"/>
+      <c r="X322" s="11"/>
+    </row>
+    <row r="323" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D323" s="5"/>
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D324" s="7"/>
+    <row r="324" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D324" s="5"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D325" s="7"/>
+    <row r="325" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D325" s="5"/>
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D326" s="7"/>
+    <row r="326" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D326" s="5"/>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D327" s="7"/>
-      <c r="E327" s="7"/>
+    <row r="327" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
       <c r="F327" s="7"/>
-    </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D328" s="7"/>
+      <c r="H327" s="7"/>
+    </row>
+    <row r="328" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D328" s="5"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D329" s="7"/>
+    <row r="329" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D329" s="5"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D330" s="7"/>
+    <row r="330" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D330" s="5"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D331" s="7"/>
+    <row r="331" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D331" s="5"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D333" s="7"/>
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
@@ -22106,27 +22927,27 @@
     <row r="518" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D518" s="7"/>
       <c r="E518" s="7"/>
-      <c r="F518" s="5"/>
+      <c r="F518" s="7"/>
     </row>
     <row r="519" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D519" s="7"/>
       <c r="E519" s="7"/>
-      <c r="F519" s="5"/>
+      <c r="F519" s="7"/>
     </row>
     <row r="520" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D520" s="7"/>
       <c r="E520" s="7"/>
-      <c r="F520" s="5"/>
+      <c r="F520" s="7"/>
     </row>
     <row r="521" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D521" s="7"/>
       <c r="E521" s="7"/>
-      <c r="F521" s="5"/>
+      <c r="F521" s="7"/>
     </row>
     <row r="522" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D522" s="7"/>
       <c r="E522" s="7"/>
-      <c r="F522" s="5"/>
+      <c r="F522" s="7"/>
     </row>
     <row r="523" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D523" s="7"/>
@@ -22181,18 +23002,94 @@
     <row r="533" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D533" s="7"/>
       <c r="E533" s="7"/>
-      <c r="F533" s="7"/>
+      <c r="F533" s="5"/>
+    </row>
+    <row r="534" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D534" s="7"/>
+      <c r="E534" s="7"/>
+      <c r="F534" s="5"/>
+    </row>
+    <row r="535" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D535" s="7"/>
+      <c r="E535" s="7"/>
+      <c r="F535" s="5"/>
+    </row>
+    <row r="536" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D536" s="7"/>
+      <c r="E536" s="7"/>
+      <c r="F536" s="5"/>
+    </row>
+    <row r="537" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D537" s="7"/>
+      <c r="E537" s="7"/>
+      <c r="F537" s="5"/>
+    </row>
+    <row r="538" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D538" s="7"/>
+      <c r="E538" s="7"/>
+      <c r="F538" s="7"/>
+    </row>
+    <row r="539" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D539" s="7"/>
+      <c r="E539" s="7"/>
+      <c r="F539" s="7"/>
+    </row>
+    <row r="540" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D540" s="7"/>
+      <c r="E540" s="7"/>
+      <c r="F540" s="7"/>
+    </row>
+    <row r="541" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D541" s="7"/>
+      <c r="E541" s="7"/>
+      <c r="F541" s="7"/>
+    </row>
+    <row r="542" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D542" s="7"/>
+      <c r="E542" s="7"/>
+      <c r="F542" s="7"/>
+    </row>
+    <row r="543" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D543" s="7"/>
+      <c r="E543" s="7"/>
+      <c r="F543" s="7"/>
+    </row>
+    <row r="544" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D544" s="7"/>
+      <c r="E544" s="7"/>
+      <c r="F544" s="7"/>
+    </row>
+    <row r="545" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D545" s="7"/>
+      <c r="E545" s="7"/>
+      <c r="F545" s="7"/>
+    </row>
+    <row r="546" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D546" s="7"/>
+      <c r="E546" s="7"/>
+      <c r="F546" s="7"/>
+    </row>
+    <row r="547" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D547" s="7"/>
+      <c r="E547" s="7"/>
+      <c r="F547" s="7"/>
+    </row>
+    <row r="548" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D548" s="7"/>
+      <c r="E548" s="7"/>
+      <c r="F548" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:X307" xr:uid="{C59F2087-EBA3-4A4D-855A-29B5D74B1D94}"/>
-  <mergeCells count="7">
-    <mergeCell ref="O288:P288"/>
-    <mergeCell ref="O293:P293"/>
-    <mergeCell ref="O294:P294"/>
-    <mergeCell ref="O295:P295"/>
-    <mergeCell ref="O296:P296"/>
-    <mergeCell ref="O290:P290"/>
-    <mergeCell ref="O291:P291"/>
+  <autoFilter ref="B1:X322" xr:uid="{C59F2087-EBA3-4A4D-855A-29B5D74B1D94}"/>
+  <mergeCells count="8">
+    <mergeCell ref="O313:P313"/>
+    <mergeCell ref="O299:P299"/>
+    <mergeCell ref="O304:P304"/>
+    <mergeCell ref="O305:P305"/>
+    <mergeCell ref="O306:P306"/>
+    <mergeCell ref="O307:P307"/>
+    <mergeCell ref="O301:P301"/>
+    <mergeCell ref="O302:P302"/>
   </mergeCells>
   <conditionalFormatting sqref="I21">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
@@ -22204,10 +23101,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA255992-FDA4-43C6-8D11-151FA1909D95}">
-  <dimension ref="A1:H494"/>
+  <dimension ref="A1:H510"/>
   <sheetViews>
-    <sheetView topLeftCell="A452" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A473" sqref="A473"/>
+    <sheetView topLeftCell="A407" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B501" sqref="B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -28087,7 +28984,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="26" t="s">
-        <v>2026</v>
+        <v>2094</v>
       </c>
       <c r="B473" s="26" t="s">
         <v>1260</v>
@@ -28101,7 +28998,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="26" t="s">
-        <v>2026</v>
+        <v>2094</v>
       </c>
       <c r="B474" s="26" t="s">
         <v>1270</v>
@@ -28115,10 +29012,10 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="26" t="s">
-        <v>2026</v>
+        <v>2094</v>
       </c>
       <c r="B475" s="26" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C475" s="26" t="s">
         <v>1976</v>
@@ -28129,10 +29026,10 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="26" t="s">
-        <v>2026</v>
+        <v>2094</v>
       </c>
       <c r="B476" s="26" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C476" s="26" t="s">
         <v>1978</v>
@@ -28143,10 +29040,10 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="26" t="s">
-        <v>2026</v>
+        <v>2094</v>
       </c>
       <c r="B477" s="26" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C477" s="26" t="s">
         <v>1979</v>
@@ -28157,10 +29054,10 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="26" t="s">
-        <v>2026</v>
+        <v>2094</v>
       </c>
       <c r="B478" s="26" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C478" s="26" t="s">
         <v>1981</v>
@@ -28171,10 +29068,10 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="26" t="s">
-        <v>2026</v>
+        <v>2094</v>
       </c>
       <c r="B479" s="26" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C479" s="26" t="s">
         <v>1983</v>
@@ -28185,10 +29082,10 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="26" t="s">
-        <v>2026</v>
+        <v>2094</v>
       </c>
       <c r="B480" s="26" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C480" s="26" t="s">
         <v>1985</v>
@@ -28199,7 +29096,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="26" t="s">
-        <v>2026</v>
+        <v>2094</v>
       </c>
       <c r="B481" s="26" t="s">
         <v>1065</v>
@@ -28208,54 +29105,54 @@
         <v>1987</v>
       </c>
       <c r="D481" s="26" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="26" t="s">
-        <v>2026</v>
+        <v>2094</v>
       </c>
       <c r="B482" s="26" t="s">
         <v>1246</v>
       </c>
       <c r="C482" s="26" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D482" s="26" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="26" t="s">
-        <v>2026</v>
+        <v>2094</v>
       </c>
       <c r="B483" s="26" t="s">
         <v>1103</v>
       </c>
       <c r="C483" s="26" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D483" s="26" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="26" t="s">
-        <v>2026</v>
+        <v>2094</v>
       </c>
       <c r="B484" s="26" t="s">
         <v>1068</v>
       </c>
       <c r="C484" s="26" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D484" s="26" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="26" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B486" s="26" t="s">
         <v>387</v>
@@ -28269,10 +29166,10 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="26" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B487" s="26" t="s">
         <v>2046</v>
-      </c>
-      <c r="B487" s="26" t="s">
-        <v>2047</v>
       </c>
       <c r="C487" s="26" t="s">
         <v>1996</v>
@@ -28283,7 +29180,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="26" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B488" s="26" t="s">
         <v>891</v>
@@ -28297,7 +29194,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="26" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B489" s="26" t="s">
         <v>1254</v>
@@ -28311,10 +29208,10 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="26" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B490" s="26" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C490" s="26" t="s">
         <v>2002</v>
@@ -28325,7 +29222,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="26" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B491" s="26" t="s">
         <v>1065</v>
@@ -28339,44 +29236,240 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="26" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B492" s="26" t="s">
         <v>1246</v>
       </c>
       <c r="C492" s="26" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D492" s="26" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="26" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B493" s="26" t="s">
         <v>1103</v>
       </c>
       <c r="C493" s="26" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D493" s="26" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="26" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B494" s="26" t="s">
         <v>1068</v>
       </c>
       <c r="C494" s="26" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D494" s="26" t="s">
-        <v>2029</v>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" s="26" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B496" s="26" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C496" s="26" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D496" s="26" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" s="26" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B497" s="26" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C497" s="26" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D497" s="26" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" s="26" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B498" s="26" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C498" s="26" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D498" s="26" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" s="26" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B499" s="26" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C499" s="26" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D499" s="26" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" s="26" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B500" s="26" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C500" s="26" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D500" s="26" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501" s="26" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B501" s="26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C501" s="26" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D501" s="26" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503" s="26" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B503" s="26" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C503" s="26" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D503" s="26" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504" s="26" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B504" s="26" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C504" s="26" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D504" s="26" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505" s="26" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B505" s="26" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C505" s="26" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D505" s="26" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" s="26" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B506" s="26" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C506" s="26" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D506" s="26" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" s="26" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B507" s="26" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C507" s="26" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D507" s="26" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" s="26" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B508" s="26" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C508" s="26" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D508" s="26" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" s="26" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B509" s="26" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C509" s="26" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D509" s="26" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" s="26" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B510" s="26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C510" s="26" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D510" s="26" t="s">
+        <v>2113</v>
       </c>
     </row>
   </sheetData>
@@ -28390,7 +29483,7 @@
   <dimension ref="B1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28439,10 +29532,10 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11" t="s">
+        <v>2065</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>2066</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>2067</v>
       </c>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
@@ -28515,7 +29608,7 @@
         <v>58</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>1972</v>
@@ -28530,7 +29623,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>818</v>
@@ -28538,10 +29631,10 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U3" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
@@ -28585,7 +29678,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>818</v>
@@ -28593,10 +29686,10 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U4" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
@@ -28640,7 +29733,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="Q5" s="11" t="s">
         <v>818</v>
@@ -28648,10 +29741,10 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U5" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
@@ -28695,7 +29788,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>818</v>
@@ -28703,10 +29796,10 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U6" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
@@ -28735,7 +29828,7 @@
         <v>58</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>1979</v>
@@ -28750,7 +29843,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>818</v>
@@ -28758,10 +29851,10 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U7" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
@@ -28805,7 +29898,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="Q8" s="11" t="s">
         <v>818</v>
@@ -28813,10 +29906,10 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U8" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
@@ -28860,7 +29953,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="Q9" s="11" t="s">
         <v>818</v>
@@ -28868,10 +29961,10 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U9" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
@@ -28915,7 +30008,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>818</v>
@@ -28923,10 +30016,10 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U10" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
@@ -28970,7 +30063,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>818</v>
@@ -28978,10 +30071,10 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="U11" s="11" t="s">
         <v>2063</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>2064</v>
       </c>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
@@ -28993,12 +30086,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0abf2ae5-e878-4ccc-836e-24fe06428412">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a6c4a5f2-8fa1-4399-adba-98b13265f581" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29197,20 +30292,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0abf2ae5-e878-4ccc-836e-24fe06428412">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a6c4a5f2-8fa1-4399-adba-98b13265f581" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273B2F34-4A00-4749-8A90-ABD69807953A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4676863E-963D-4151-9B18-83A7B5BD8FFD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0abf2ae5-e878-4ccc-836e-24fe06428412"/>
+    <ds:schemaRef ds:uri="a6c4a5f2-8fa1-4399-adba-98b13265f581"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29235,12 +30331,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4676863E-963D-4151-9B18-83A7B5BD8FFD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273B2F34-4A00-4749-8A90-ABD69807953A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0abf2ae5-e878-4ccc-836e-24fe06428412"/>
-    <ds:schemaRef ds:uri="a6c4a5f2-8fa1-4399-adba-98b13265f581"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>